--- a/data/hotels_by_city/Houston/Houston_shard_67.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_67.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="278">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d108060-Reviews-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Candlewood-Suites-Houston-Clear-Lake.h82533.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,728 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r509422178-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>108060</t>
+  </si>
+  <si>
+    <t>509422178</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t>Good for professionals there to work</t>
+  </si>
+  <si>
+    <t>No pool, so not so good for families on vacation.  But my room had a kitchenette with microwave, and although I didn't need it, free laundry (must buy the soap however).  The room has a work area and wifi. This place does have an exercise room.  McDonalds and Denny's very close by, a Subway not too far away.  Look sharp for the small sign as you drive by on Bay Area Blvd.  Set back from the road so pretty quiet - but walls are a little thin.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r479916322-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>479916322</t>
+  </si>
+  <si>
+    <t>04/29/2017</t>
+  </si>
+  <si>
+    <t>Excellent Long Term Accomodation</t>
+  </si>
+  <si>
+    <t>We stayed at this property for eight weeks while our house was being renovated near by.  We had a one bedroom place with a kitchen.  It worked very well for us.  The room was comfortable, the bed was nice, the kitchen adequate and the WiFi was reliable.  There is also a free laundry which was welcome.
+Our experiences with the staff were first rate.  Always a smile and cheerful hello.  There are lots of videos which you can borrow and there is free coffee 24/7.  We had a couple maintenance items pop up and the staff was on them immediately and they were resolved promptly.
+This place is really a long term residence more than a hotel.  There is no complimentary breakfast.  There is a pantry where you can buy stuff.  Additionally, there is a McDonalds and a Dennys right next door.  We preferred to cook things in the kitchen.  There is no oven, so you just work around that.  There is a dishwasher. There were a bunch of contractor people staying.  There were a number of others like us who were there for a long time.  Housekeeping is only once a week, but you can get all the towels and consumables you want at the desk.
+I would not hesitate to stay at a Candlewood during our lengthy road trips.  All in all it was a good experience.  We would recommend it to anybody who is facing an extended...We stayed at this property for eight weeks while our house was being renovated near by.  We had a one bedroom place with a kitchen.  It worked very well for us.  The room was comfortable, the bed was nice, the kitchen adequate and the WiFi was reliable.  There is also a free laundry which was welcome.Our experiences with the staff were first rate.  Always a smile and cheerful hello.  There are lots of videos which you can borrow and there is free coffee 24/7.  We had a couple maintenance items pop up and the staff was on them immediately and they were resolved promptly.This place is really a long term residence more than a hotel.  There is no complimentary breakfast.  There is a pantry where you can buy stuff.  Additionally, there is a McDonalds and a Dennys right next door.  We preferred to cook things in the kitchen.  There is no oven, so you just work around that.  There is a dishwasher. There were a bunch of contractor people staying.  There were a number of others like us who were there for a long time.  Housekeeping is only once a week, but you can get all the towels and consumables you want at the desk.I would not hesitate to stay at a Candlewood during our lengthy road trips.  All in all it was a good experience.  We would recommend it to anybody who is facing an extended stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We stayed at this property for eight weeks while our house was being renovated near by.  We had a one bedroom place with a kitchen.  It worked very well for us.  The room was comfortable, the bed was nice, the kitchen adequate and the WiFi was reliable.  There is also a free laundry which was welcome.
+Our experiences with the staff were first rate.  Always a smile and cheerful hello.  There are lots of videos which you can borrow and there is free coffee 24/7.  We had a couple maintenance items pop up and the staff was on them immediately and they were resolved promptly.
+This place is really a long term residence more than a hotel.  There is no complimentary breakfast.  There is a pantry where you can buy stuff.  Additionally, there is a McDonalds and a Dennys right next door.  We preferred to cook things in the kitchen.  There is no oven, so you just work around that.  There is a dishwasher. There were a bunch of contractor people staying.  There were a number of others like us who were there for a long time.  Housekeeping is only once a week, but you can get all the towels and consumables you want at the desk.
+I would not hesitate to stay at a Candlewood during our lengthy road trips.  All in all it was a good experience.  We would recommend it to anybody who is facing an extended...We stayed at this property for eight weeks while our house was being renovated near by.  We had a one bedroom place with a kitchen.  It worked very well for us.  The room was comfortable, the bed was nice, the kitchen adequate and the WiFi was reliable.  There is also a free laundry which was welcome.Our experiences with the staff were first rate.  Always a smile and cheerful hello.  There are lots of videos which you can borrow and there is free coffee 24/7.  We had a couple maintenance items pop up and the staff was on them immediately and they were resolved promptly.This place is really a long term residence more than a hotel.  There is no complimentary breakfast.  There is a pantry where you can buy stuff.  Additionally, there is a McDonalds and a Dennys right next door.  We preferred to cook things in the kitchen.  There is no oven, so you just work around that.  There is a dishwasher. There were a bunch of contractor people staying.  There were a number of others like us who were there for a long time.  Housekeeping is only once a week, but you can get all the towels and consumables you want at the desk.I would not hesitate to stay at a Candlewood during our lengthy road trips.  All in all it was a good experience.  We would recommend it to anybody who is facing an extended stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r458508776-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458508776</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t>One night stay for superbowl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here for the Saturday night before Superbowl Sunday,  and the staff was very friendly and the hotel was clean. Nothing glamorous about it, but my water pressure in my shower was great and my room clean. Can't ask for much more, just nothing spectacular about it so that's why 4 stars. But very enjoyable stay. </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r390879727-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>390879727</t>
+  </si>
+  <si>
+    <t>07/09/2016</t>
+  </si>
+  <si>
+    <t>Okay if you don't need to sleep...</t>
+  </si>
+  <si>
+    <t>This place is clean, friendly and convenient but if you plan on sleeping choose another place. The rooms are big, no pool and quiet but the worse bed I have ever slept in my entire life. Two normal size people rolling toward each other fighting to keep on your side all night long. Every movement is felt as a violent shake and mattress was creaking the entire time. Need to invest in some new mattresses and this place could be awesome.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r389849982-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>389849982</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>OK - inexpensive and a few good features but not great</t>
+  </si>
+  <si>
+    <t>Hotel had pretty fast internet (could watch streaming movies), in room coffee, comfortable and large desk area, full size refrigerator and decent flat screen TV/HDMI monitor.However, no daily maid service (apparently,) no breakfast (just a brief showing for granola bars and tangerines,) no pool or spa.Pretty much what you would expect at this price point.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Chris B, General Manager at Candlewood Suites Houston - Clear Lake, responded to this reviewResponded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Hotel had pretty fast internet (could watch streaming movies), in room coffee, comfortable and large desk area, full size refrigerator and decent flat screen TV/HDMI monitor.However, no daily maid service (apparently,) no breakfast (just a brief showing for granola bars and tangerines,) no pool or spa.Pretty much what you would expect at this price point.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r384073660-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>384073660</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>They staff wasn't as friendly as the one in the Woodlands area.  They did not have a complimentary breakfast, and there was no where to sit for a lobby.  the smoking section was nice and i loved the area it was in.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris B, General Manager at Candlewood Suites Houston - Clear Lake, responded to this reviewResponded June 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2016</t>
+  </si>
+  <si>
+    <t>They staff wasn't as friendly as the one in the Woodlands area.  They did not have a complimentary breakfast, and there was no where to sit for a lobby.  the smoking section was nice and i loved the area it was in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r358251794-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>358251794</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Wonderful and accomodating</t>
+  </si>
+  <si>
+    <t>The hotel staff provides an excellent facility with clean rooms, kitchens, and appliances. There's a "lending" facility for DVDs and smaller appliances, free of charge. Great place to stay for short or long visit. Gas, convenience, and restaurants nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Chris B, General Manager at Candlewood Suites Houston - Clear Lake, responded to this reviewResponded March 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2016</t>
+  </si>
+  <si>
+    <t>The hotel staff provides an excellent facility with clean rooms, kitchens, and appliances. There's a "lending" facility for DVDs and smaller appliances, free of charge. Great place to stay for short or long visit. Gas, convenience, and restaurants nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r341071485-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>341071485</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>Awesome stay</t>
+  </si>
+  <si>
+    <t>Stayed at this Candlewood suites the weekend of January 15, 2016. We absolutely loved it. When we first arrive Friday night, Linda was working the front desk. She was so sweet, helpful, and friendly. We felt welcomed right away! The hotel is in a good location. Dennys and McDonald's both within walking distance of the hotel. Plenty of gas stations and stores in the area also. It took us about 30 minutes to get to downtown from this hotel and about 15 minutes to Kemah. The room was very specious and the kitchen is fully loaded with a full sized fridge and all the utensils you could need to cook with. What we also loved was the free DVDs they have to check out since there is a DVD player in the room. We found some good new movies and also some great oldies. The lending locker was great as well. Board games, blenders, crock pots, and lots of other things to check out to borrow during the stay. It was an amazing stay overall and the rates were great! We will definitely be staying here next time we go to Houston. Would definitely recommend. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Chris B, General Manager at Candlewood Suites Houston - Clear Lake, responded to this reviewResponded January 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2016</t>
+  </si>
+  <si>
+    <t>Stayed at this Candlewood suites the weekend of January 15, 2016. We absolutely loved it. When we first arrive Friday night, Linda was working the front desk. She was so sweet, helpful, and friendly. We felt welcomed right away! The hotel is in a good location. Dennys and McDonald's both within walking distance of the hotel. Plenty of gas stations and stores in the area also. It took us about 30 minutes to get to downtown from this hotel and about 15 minutes to Kemah. The room was very specious and the kitchen is fully loaded with a full sized fridge and all the utensils you could need to cook with. What we also loved was the free DVDs they have to check out since there is a DVD player in the room. We found some good new movies and also some great oldies. The lending locker was great as well. Board games, blenders, crock pots, and lots of other things to check out to borrow during the stay. It was an amazing stay overall and the rates were great! We will definitely be staying here next time we go to Houston. Would definitely recommend. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r325562288-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>325562288</t>
+  </si>
+  <si>
+    <t>11/09/2015</t>
+  </si>
+  <si>
+    <t>Spaceous room with well though-out layout</t>
+  </si>
+  <si>
+    <t>I loved the layout. The kitchen had all I needed (but the instruction booklet to the microwave/toaster oven, making me guess how to use it properly), The desk with adjacent dinnertable was a good idea. It made it possible for me to cook dinner for my two colleagues and have a comfortable meal with them.The idea of using a wall filling desk-top gave me lots of space to put my stuff on it. I felt it was a much better design than what you normal have: separate desk and cupboard, which often leads to stuff falling off on the floor. The bed was comfortable as was the lazy chair.The three wide drawers under the desk-top provided ample space for my clothing and other items. The deep wall cupboard was large enough to hide all my luggage from view and to hang my cloths.Being able to open de window, which had a well fitted screen to keep musquitoes out was convenient to air the room. The only thing missing was an inroom safe to store my valuables.There is a big, 24 hrs supermarket close by. Right adjacent to the hotel there are several fastfood restaurants. Exiting the hotel's entrance street to the right brings you to several other restaurants , There is even a nice sushi restaurant in the stripmall nearby (across the street,  at the back on the left side of the strip mall)).MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Chris B, General Manager at Candlewood Suites Houston - Clear Lake, responded to this reviewResponded November 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2015</t>
+  </si>
+  <si>
+    <t>I loved the layout. The kitchen had all I needed (but the instruction booklet to the microwave/toaster oven, making me guess how to use it properly), The desk with adjacent dinnertable was a good idea. It made it possible for me to cook dinner for my two colleagues and have a comfortable meal with them.The idea of using a wall filling desk-top gave me lots of space to put my stuff on it. I felt it was a much better design than what you normal have: separate desk and cupboard, which often leads to stuff falling off on the floor. The bed was comfortable as was the lazy chair.The three wide drawers under the desk-top provided ample space for my clothing and other items. The deep wall cupboard was large enough to hide all my luggage from view and to hang my cloths.Being able to open de window, which had a well fitted screen to keep musquitoes out was convenient to air the room. The only thing missing was an inroom safe to store my valuables.There is a big, 24 hrs supermarket close by. Right adjacent to the hotel there are several fastfood restaurants. Exiting the hotel's entrance street to the right brings you to several other restaurants , There is even a nice sushi restaurant in the stripmall nearby (across the street,  at the back on the left side of the strip mall)).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r254159768-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254159768</t>
+  </si>
+  <si>
+    <t>02/14/2015</t>
+  </si>
+  <si>
+    <t>WOW! Never again!</t>
+  </si>
+  <si>
+    <t>Well around this area I doubt anyone is here on a vacation. I'm sure it's 99.9% business. However it's not an excuse for a place like this. This hotel needs to close its doors or upgrade fast! The first issue was the way it felt like a motel lobby. The lobby was ugly and it looked like a walk in clinic that was turned into a motel. The elevator made noises and when it stopped it was rough and shakes a bit before it comes to complete stop, so it didn't surprise me at all that it only worked 2 days out the 7 days I was there. The hallways had a dingy carpet, and walls that could use a painting. The room was in better condition but no service at all the whole week. No one came in to at least make the bed and freshen up the room just a little. It was not their policy, but I was informed that they have changed it to one maid visit per week of your stay, what’s the difference? No breakfast offered, nothing…  They did have a little "break room" that offered snacks, frozen dinners for sale and if you were lucky someone would came in to make sure the coffee maker hadn't run out of coffee. The front desk seems to be monitored at times by that "Kilroy" character, When you walked in someone would be in a cubicle...Well around this area I doubt anyone is here on a vacation. I'm sure it's 99.9% business. However it's not an excuse for a place like this. This hotel needs to close its doors or upgrade fast! The first issue was the way it felt like a motel lobby. The lobby was ugly and it looked like a walk in clinic that was turned into a motel. The elevator made noises and when it stopped it was rough and shakes a bit before it comes to complete stop, so it didn't surprise me at all that it only worked 2 days out the 7 days I was there. The hallways had a dingy carpet, and walls that could use a painting. The room was in better condition but no service at all the whole week. No one came in to at least make the bed and freshen up the room just a little. It was not their policy, but I was informed that they have changed it to one maid visit per week of your stay, what’s the difference? No breakfast offered, nothing…  They did have a little "break room" that offered snacks, frozen dinners for sale and if you were lucky someone would came in to make sure the coffee maker hadn't run out of coffee. The front desk seems to be monitored at times by that "Kilroy" character, When you walked in someone would be in a cubicle in back of the room that you can see through the window/opening in the wall, whatever you want to call it, you would see a head pop up and the eyes and nose of the clerk would meet you over the wall to see what you wanted... It was just awful.. There are a few other things to complain about but I’m done… it's like beating, no shooting a dead horse!!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston - Clear Lake, responded to this reviewResponded March 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2015</t>
+  </si>
+  <si>
+    <t>Well around this area I doubt anyone is here on a vacation. I'm sure it's 99.9% business. However it's not an excuse for a place like this. This hotel needs to close its doors or upgrade fast! The first issue was the way it felt like a motel lobby. The lobby was ugly and it looked like a walk in clinic that was turned into a motel. The elevator made noises and when it stopped it was rough and shakes a bit before it comes to complete stop, so it didn't surprise me at all that it only worked 2 days out the 7 days I was there. The hallways had a dingy carpet, and walls that could use a painting. The room was in better condition but no service at all the whole week. No one came in to at least make the bed and freshen up the room just a little. It was not their policy, but I was informed that they have changed it to one maid visit per week of your stay, what’s the difference? No breakfast offered, nothing…  They did have a little "break room" that offered snacks, frozen dinners for sale and if you were lucky someone would came in to make sure the coffee maker hadn't run out of coffee. The front desk seems to be monitored at times by that "Kilroy" character, When you walked in someone would be in a cubicle...Well around this area I doubt anyone is here on a vacation. I'm sure it's 99.9% business. However it's not an excuse for a place like this. This hotel needs to close its doors or upgrade fast! The first issue was the way it felt like a motel lobby. The lobby was ugly and it looked like a walk in clinic that was turned into a motel. The elevator made noises and when it stopped it was rough and shakes a bit before it comes to complete stop, so it didn't surprise me at all that it only worked 2 days out the 7 days I was there. The hallways had a dingy carpet, and walls that could use a painting. The room was in better condition but no service at all the whole week. No one came in to at least make the bed and freshen up the room just a little. It was not their policy, but I was informed that they have changed it to one maid visit per week of your stay, what’s the difference? No breakfast offered, nothing…  They did have a little "break room" that offered snacks, frozen dinners for sale and if you were lucky someone would came in to make sure the coffee maker hadn't run out of coffee. The front desk seems to be monitored at times by that "Kilroy" character, When you walked in someone would be in a cubicle in back of the room that you can see through the window/opening in the wall, whatever you want to call it, you would see a head pop up and the eyes and nose of the clerk would meet you over the wall to see what you wanted... It was just awful.. There are a few other things to complain about but I’m done… it's like beating, no shooting a dead horse!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r245088447-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>245088447</t>
+  </si>
+  <si>
+    <t>12/19/2014</t>
+  </si>
+  <si>
+    <t>Met My Needs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was in the area for five 5 nights on business. Got a corporate rate. Well worth the price. Clean room, hot water, comfortable bed. Kitchenette was adequately stocked. Friendly staff. Many nearby restaurants and shopping areas. I've paid a lot more for a lot less. The only complaint I had was the air conditioner......too loud. With that said, I would return. </t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r235425394-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>235425394</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>We Will Go Back</t>
+  </si>
+  <si>
+    <t>We had a great stay at a great price. The staff were very friendly. Our room was quiet all night. The bed was very good. We loved having the full size refrigerator and ice maker in the room. We turned our ice maker off at night, as even at home we know you will hear ice drop if you don't. We where visiting to shop for a wedding dress with my daughter. The room was clean, and the facility was decorated for Halloween/Fall very tastefully. We will be attending the wedding reception next year, and this is where we will stay and will encourage others as well. Near some shopping for things you need. Very close to Space Center Houston at Johnson Space Center.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>We had a great stay at a great price. The staff were very friendly. Our room was quiet all night. The bed was very good. We loved having the full size refrigerator and ice maker in the room. We turned our ice maker off at night, as even at home we know you will hear ice drop if you don't. We where visiting to shop for a wedding dress with my daughter. The room was clean, and the facility was decorated for Halloween/Fall very tastefully. We will be attending the wedding reception next year, and this is where we will stay and will encourage others as well. Near some shopping for things you need. Very close to Space Center Houston at Johnson Space Center.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r206907919-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>206907919</t>
+  </si>
+  <si>
+    <t>05/24/2014</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>The rooms were nicely designed and clean and properly equipped for cooking. My point of contention is the HVAC system which is designed to save energy when the room was not occupied. The problem is once you turn all the lights off and go to bed the system deems you are not in the room and turns the A/C off, over my 5 night stay I woke up sweating every night. Not so smart if you ask this sleepless traveler.  Also the wall control unit is not access able so you have to use the window unit itself to control the temperature when it allows you to. Another irritant is you either have to use the overhead bedroom light on or no lights on at all, I had to go buy a cheap lamp so I could see my remotes to watch the TV at night.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston - Clear Lake, responded to this reviewResponded June 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2014</t>
+  </si>
+  <si>
+    <t>The rooms were nicely designed and clean and properly equipped for cooking. My point of contention is the HVAC system which is designed to save energy when the room was not occupied. The problem is once you turn all the lights off and go to bed the system deems you are not in the room and turns the A/C off, over my 5 night stay I woke up sweating every night. Not so smart if you ask this sleepless traveler.  Also the wall control unit is not access able so you have to use the window unit itself to control the temperature when it allows you to. Another irritant is you either have to use the overhead bedroom light on or no lights on at all, I had to go buy a cheap lamp so I could see my remotes to watch the TV at night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r201736552-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>201736552</t>
+  </si>
+  <si>
+    <t>04/18/2014</t>
+  </si>
+  <si>
+    <t>Nice save</t>
+  </si>
+  <si>
+    <t>After a nightmare experience with an extended stay hotel up the street I checked into a room here. After two sleepless nights else where the front desk here was a nice change. The room exceeded my dollar expectations and was nice and quiet. I stayed 2 weeks. I have cons to report but to be honest besides the room being very nice and quiet nothing else makes it stand out to me. Location average, staff average, By average I mean fair service for a fair price.But I would not shop them if I was in the area, I would return and stay with them again.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r199197952-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199197952</t>
+  </si>
+  <si>
+    <t>03/29/2014</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>There were a couple problems with the room, none of which I mentioned to management.  The first was torn fabric (pleather?) seat.  The next day when I came back, they had switched out the chair!  Unheard of that they did this without me reporting it.  A refreshing change where housekeeping usually does not notice or report problems, or maintenance does not proactively fix.The second item was a very rusted air conditioning unit.  It was very rusted.  But, obviously, that takes more money.  It didn't bother me and still seemed to work fine.The room was very comfortable.  I love to two rooms concept and the desks in Candlewood suites are the best layout anywhere, plenty of light and plugs to work on my computer and plug all my phones into.Windows actually open which I love, and the room was extremely quiet.Candlewood Suites is a small step below Embassy or Homewood, but I'd always stay here as there is ample parking, staff was friendly and efficient and was a good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>There were a couple problems with the room, none of which I mentioned to management.  The first was torn fabric (pleather?) seat.  The next day when I came back, they had switched out the chair!  Unheard of that they did this without me reporting it.  A refreshing change where housekeeping usually does not notice or report problems, or maintenance does not proactively fix.The second item was a very rusted air conditioning unit.  It was very rusted.  But, obviously, that takes more money.  It didn't bother me and still seemed to work fine.The room was very comfortable.  I love to two rooms concept and the desks in Candlewood suites are the best layout anywhere, plenty of light and plugs to work on my computer and plug all my phones into.Windows actually open which I love, and the room was extremely quiet.Candlewood Suites is a small step below Embassy or Homewood, but I'd always stay here as there is ample parking, staff was friendly and efficient and was a good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r187633721-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>187633721</t>
+  </si>
+  <si>
+    <t>12/14/2013</t>
+  </si>
+  <si>
+    <t>Honesty...restores my faith in mankind.</t>
+  </si>
+  <si>
+    <t>The hotel was exceptionally clean and well kept but the reason I'm wrting is the absolute honesty of the staff and people staying there this trip. I ate a rushed breakfast in the cupboard/laundry and had to leave in a hurry. I forgot my Oakleigh Kitchen Sink bag with my computer and all of my jumpdrives and  Nikon camera...on the washing machine. When I returned it was still there 3 1/2 hours later...relieved I should say so... but really stay here people are honest and its not the Big City. Besides Tommys is right next door a better meal you couldn't ask for!</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r186615037-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>186615037</t>
+  </si>
+  <si>
+    <t>12/03/2013</t>
+  </si>
+  <si>
+    <t>Surprisingly comfortable</t>
+  </si>
+  <si>
+    <t>Great hotel, staff super staff.  I was surprised that a hotel with such a great weekend rate was so comfortable.   Staff was courteous, room was clean, bed fresh, bathroom roomy.  Having a mini-kitchen really made it a lot like being home. I'm definitely staying here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r183222542-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183222542</t>
+  </si>
+  <si>
+    <t>11/01/2013</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>This was our first stay at a Candlewood Suites and we were very impressed.  We didn't use all the facilities, but the hotel was clean and the woman at the front desk was very nice and helpful with directions.  We had  room on the 1st floor and it was immaculate (and trust me, I am OCD and look at everything before we settle in).  It was a studio and it was a great size.  The bed, sheets and pillows were very comfortable and the tv was the in the perfect spot.  The kitchen had everything we needed for a 1 night stay, and a lot more we could have used if we had stayed longer.  The bathroom was modern and so clean... great water pressure!  Loved the inset sink.  Towels were so fluffy.  We even 'rented/borrowed' some DVD's from the front desk that they have available for their customers.  We will definitely be staying at Candlewood Suites again!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>This was our first stay at a Candlewood Suites and we were very impressed.  We didn't use all the facilities, but the hotel was clean and the woman at the front desk was very nice and helpful with directions.  We had  room on the 1st floor and it was immaculate (and trust me, I am OCD and look at everything before we settle in).  It was a studio and it was a great size.  The bed, sheets and pillows were very comfortable and the tv was the in the perfect spot.  The kitchen had everything we needed for a 1 night stay, and a lot more we could have used if we had stayed longer.  The bathroom was modern and so clean... great water pressure!  Loved the inset sink.  Towels were so fluffy.  We even 'rented/borrowed' some DVD's from the front desk that they have available for their customers.  We will definitely be staying at Candlewood Suites again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r163517271-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163517271</t>
+  </si>
+  <si>
+    <t>06/09/2013</t>
+  </si>
+  <si>
+    <t>Love the location and having a kitchen.</t>
+  </si>
+  <si>
+    <t>I stayed here with my husband and 2 children for a month for my husbands job. We have stayed in this area before and chose to stay here for 1st time because I love the location. The staff was very helpful and the hotel was nice and clean. I just got annoyed that the coffee machine was always out of coffee. But overall great stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r157050729-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157050729</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>I booked a room here back in November for this past Saturday night. When I got there at check in time they did not have my room ready, and when they did, there was only a smoking room available. Their excuse was that they had guests who had decided to stay. The truth is that they have an extended stay program, not advertised on their website. I booked this room 5 months ago and never was I advised that I wouldn't get a room. The manager was argumentative, arrogant, and outright dishonest in trying to squirm his way out of this. Needless, my family and I had no where to stay that night for a trip that we had planned for months...despite booking this room 5 months ago. Unacceptable!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Sharon D, General Manager at Candlewood Suites Houston - Clear Lake, responded to this reviewResponded April 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2013</t>
+  </si>
+  <si>
+    <t>I booked a room here back in November for this past Saturday night. When I got there at check in time they did not have my room ready, and when they did, there was only a smoking room available. Their excuse was that they had guests who had decided to stay. The truth is that they have an extended stay program, not advertised on their website. I booked this room 5 months ago and never was I advised that I wouldn't get a room. The manager was argumentative, arrogant, and outright dishonest in trying to squirm his way out of this. Needless, my family and I had no where to stay that night for a trip that we had planned for months...despite booking this room 5 months ago. Unacceptable!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r154435717-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154435717</t>
+  </si>
+  <si>
+    <t>03/13/2013</t>
+  </si>
+  <si>
+    <t>Nice and Clean hotel.....</t>
+  </si>
+  <si>
+    <t>always have used candlewood suites on trips, this one was clean and the room was nice. Hotel staff okay, not as friendly as others we have stayed at but okay. I was a little surprised that there was no pool. But, no biggie as it is winter. We did  enjoy our stay. *ONe funny thing was they had a cart that the maintenance staff pushed up and down the hallway that is extra noisy, it woke me up...haha, need to get that wheel fixed. But, we would return there...</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r134414988-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>134414988</t>
+  </si>
+  <si>
+    <t>07/15/2012</t>
+  </si>
+  <si>
+    <t>Great value.</t>
+  </si>
+  <si>
+    <t>A short drive from Clear Lake and the international airport and off a busy highway between Houston and Galveston this is a functional, reasonabley priced  'motel' type establishment surrounded by well maintained offices, a Macdonalds and a Dennys both of which are convenient for breakfast.
+The hotel was nearing the end of a refurbsihment program when I stayed so the managemnt kindly left a small 'sorry for the inconvenience' bag in the room containing a small bottle of wine, some nuts and biscuits. There is a coffee making machine in the room with two complementary filter packets, small sacets of sugar and milk. 
+Decor in the room is a little dull being mainly brown and beige but it is clean and the large bed very comfortable. The towels and hairdryer seemed to be new.  For a longer stay the kitchen area would be a useful asset but the noise of the condenser on the fridge and the wall mounted airconditioning unit did not make for a good nights sleep.There is a useful office desk and free wifi.
+The hotel has a well equipped laundry in the same room as a 'help yourself' eating area where you can purchase machine coffee, snacks and some easy cook microwave meals for which you can pay using the honesty box or by filling in a usage form to add the charges to the bill. 
+On site there is an outdoor BBQ area with two...A short drive from Clear Lake and the international airport and off a busy highway between Houston and Galveston this is a functional, reasonabley priced  'motel' type establishment surrounded by well maintained offices, a Macdonalds and a Dennys both of which are convenient for breakfast.The hotel was nearing the end of a refurbsihment program when I stayed so the managemnt kindly left a small 'sorry for the inconvenience' bag in the room containing a small bottle of wine, some nuts and biscuits. There is a coffee making machine in the room with two complementary filter packets, small sacets of sugar and milk. Decor in the room is a little dull being mainly brown and beige but it is clean and the large bed very comfortable. The towels and hairdryer seemed to be new.  For a longer stay the kitchen area would be a useful asset but the noise of the condenser on the fridge and the wall mounted airconditioning unit did not make for a good nights sleep.There is a useful office desk and free wifi.The hotel has a well equipped laundry in the same room as a 'help yourself' eating area where you can purchase machine coffee, snacks and some easy cook microwave meals for which you can pay using the honesty box or by filling in a usage form to add the charges to the bill. On site there is an outdoor BBQ area with two large units and several tables and chairs, all under a pavilion roof to shelter from the sun or rain.Staff were very pleasant and prices reasonable.  There is ample parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>A short drive from Clear Lake and the international airport and off a busy highway between Houston and Galveston this is a functional, reasonabley priced  'motel' type establishment surrounded by well maintained offices, a Macdonalds and a Dennys both of which are convenient for breakfast.
+The hotel was nearing the end of a refurbsihment program when I stayed so the managemnt kindly left a small 'sorry for the inconvenience' bag in the room containing a small bottle of wine, some nuts and biscuits. There is a coffee making machine in the room with two complementary filter packets, small sacets of sugar and milk. 
+Decor in the room is a little dull being mainly brown and beige but it is clean and the large bed very comfortable. The towels and hairdryer seemed to be new.  For a longer stay the kitchen area would be a useful asset but the noise of the condenser on the fridge and the wall mounted airconditioning unit did not make for a good nights sleep.There is a useful office desk and free wifi.
+The hotel has a well equipped laundry in the same room as a 'help yourself' eating area where you can purchase machine coffee, snacks and some easy cook microwave meals for which you can pay using the honesty box or by filling in a usage form to add the charges to the bill. 
+On site there is an outdoor BBQ area with two...A short drive from Clear Lake and the international airport and off a busy highway between Houston and Galveston this is a functional, reasonabley priced  'motel' type establishment surrounded by well maintained offices, a Macdonalds and a Dennys both of which are convenient for breakfast.The hotel was nearing the end of a refurbsihment program when I stayed so the managemnt kindly left a small 'sorry for the inconvenience' bag in the room containing a small bottle of wine, some nuts and biscuits. There is a coffee making machine in the room with two complementary filter packets, small sacets of sugar and milk. Decor in the room is a little dull being mainly brown and beige but it is clean and the large bed very comfortable. The towels and hairdryer seemed to be new.  For a longer stay the kitchen area would be a useful asset but the noise of the condenser on the fridge and the wall mounted airconditioning unit did not make for a good nights sleep.There is a useful office desk and free wifi.The hotel has a well equipped laundry in the same room as a 'help yourself' eating area where you can purchase machine coffee, snacks and some easy cook microwave meals for which you can pay using the honesty box or by filling in a usage form to add the charges to the bill. On site there is an outdoor BBQ area with two large units and several tables and chairs, all under a pavilion roof to shelter from the sun or rain.Staff were very pleasant and prices reasonable.  There is ample parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r133209260-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>133209260</t>
+  </si>
+  <si>
+    <t>07/01/2012</t>
+  </si>
+  <si>
+    <t>New renovations are great!</t>
+  </si>
+  <si>
+    <t>I just stayed here and I have to say the room was really nice and a great value for the money. I stayed on the second floor, the first floor is under construction, but that did not really bother me.  What I really like aboutthis place is the "cupboard".  They have a large selection of drinks and snacks that you can come and get whenever- there is a slot to put cash in or fill out a card and charge it to your room.  I hate dealing with vending machines.  There are many places to eat and shop nearby and the drive to Galveston is not too bad.Sha at the front desk is really friendly and helpful. There are many long-term guests and she seems to make an effort to make sure everyone is comfortable.I will be staying again with ot without the construction!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I just stayed here and I have to say the room was really nice and a great value for the money. I stayed on the second floor, the first floor is under construction, but that did not really bother me.  What I really like aboutthis place is the "cupboard".  They have a large selection of drinks and snacks that you can come and get whenever- there is a slot to put cash in or fill out a card and charge it to your room.  I hate dealing with vending machines.  There are many places to eat and shop nearby and the drive to Galveston is not too bad.Sha at the front desk is really friendly and helpful. There are many long-term guests and she seems to make an effort to make sure everyone is comfortable.I will be staying again with ot without the construction!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r131149516-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131149516</t>
+  </si>
+  <si>
+    <t>06/02/2012</t>
+  </si>
+  <si>
+    <t>Overbooked, but charged for stay.</t>
+  </si>
+  <si>
+    <t>On April 28 around 6pm made a reservation via 3rd party online reservation system and received email confirmation the reservation was made; even had a confirmation #.  Arrived at hotel and a very nice front desk agent (I think her name was N'sha)? told us their were no rooms available and there had not been any available since 3pm that day.  She said we were the 3rd reservation she had to deal with, same exact problem.  She apologized and made a reservation for us at the Candlewood Suites in Deer Park.  During the time she was making the reservation for us another couple walked in.  Guess what?  They had the same exact problem even though they had email confirmation too.
+We asked if our AMEX card would be charged.  She said it shouldn't be since the reservation wasn’t in their reservation system.  Checked AMEX a week later and of course we were charged.  In addition, Candlewood Suites customer service said - as per their policy - we should not be charged for the Deer Park stay due to it being their screw up.  Note: We had 3 separate conversations with Customer Service and each agent said this is their policy - credit both stays – we did not bring it up. 
+First and second conversations; the Customer Service rep contacted the hotels on our behalf and talked to the owners.  Said it would take 10 days for our AMEX to...On April 28 around 6pm made a reservation via 3rd party online reservation system and received email confirmation the reservation was made; even had a confirmation #.  Arrived at hotel and a very nice front desk agent (I think her name was N'sha)? told us their were no rooms available and there had not been any available since 3pm that day.  She said we were the 3rd reservation she had to deal with, same exact problem.  She apologized and made a reservation for us at the Candlewood Suites in Deer Park.  During the time she was making the reservation for us another couple walked in.  Guess what?  They had the same exact problem even though they had email confirmation too.We asked if our AMEX card would be charged.  She said it shouldn't be since the reservation wasn’t in their reservation system.  Checked AMEX a week later and of course we were charged.  In addition, Candlewood Suites customer service said - as per their policy - we should not be charged for the Deer Park stay due to it being their screw up.  Note: We had 3 separate conversations with Customer Service and each agent said this is their policy - credit both stays – we did not bring it up. First and second conversations; the Customer Service rep contacted the hotels on our behalf and talked to the owners.  Said it would take 10 days for our AMEX to be credited. 30 days later; no credit. The last conversation with Customer Service on 6/2 - they indicated we had to talk to the particular owners of the hotel, even though in the 2 previous conversations THEY talked to the owners on our behalf.  When asked for the owners' information they said they were unable to give it to us.  Then they said we would need to contact AMEX and dispute the charges.  Completely unacceptable making us do the legwork due to YOUR screw up.The net net - do not use Candlewood Suites, especially this one.  Unwilling to take responsibility and fix the problem when THEY mess up.And finally, the only person in this whole fiasco who displayed professionalism, apologized numerous times, and got us a room was the front desk agent at the Clearlake property.  Ironically, she’s probably the least paid and crapped on by her boss, but was still the most helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston - Clear Lake, responded to this reviewResponded July 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2012</t>
+  </si>
+  <si>
+    <t>On April 28 around 6pm made a reservation via 3rd party online reservation system and received email confirmation the reservation was made; even had a confirmation #.  Arrived at hotel and a very nice front desk agent (I think her name was N'sha)? told us their were no rooms available and there had not been any available since 3pm that day.  She said we were the 3rd reservation she had to deal with, same exact problem.  She apologized and made a reservation for us at the Candlewood Suites in Deer Park.  During the time she was making the reservation for us another couple walked in.  Guess what?  They had the same exact problem even though they had email confirmation too.
+We asked if our AMEX card would be charged.  She said it shouldn't be since the reservation wasn’t in their reservation system.  Checked AMEX a week later and of course we were charged.  In addition, Candlewood Suites customer service said - as per their policy - we should not be charged for the Deer Park stay due to it being their screw up.  Note: We had 3 separate conversations with Customer Service and each agent said this is their policy - credit both stays – we did not bring it up. 
+First and second conversations; the Customer Service rep contacted the hotels on our behalf and talked to the owners.  Said it would take 10 days for our AMEX to...On April 28 around 6pm made a reservation via 3rd party online reservation system and received email confirmation the reservation was made; even had a confirmation #.  Arrived at hotel and a very nice front desk agent (I think her name was N'sha)? told us their were no rooms available and there had not been any available since 3pm that day.  She said we were the 3rd reservation she had to deal with, same exact problem.  She apologized and made a reservation for us at the Candlewood Suites in Deer Park.  During the time she was making the reservation for us another couple walked in.  Guess what?  They had the same exact problem even though they had email confirmation too.We asked if our AMEX card would be charged.  She said it shouldn't be since the reservation wasn’t in their reservation system.  Checked AMEX a week later and of course we were charged.  In addition, Candlewood Suites customer service said - as per their policy - we should not be charged for the Deer Park stay due to it being their screw up.  Note: We had 3 separate conversations with Customer Service and each agent said this is their policy - credit both stays – we did not bring it up. First and second conversations; the Customer Service rep contacted the hotels on our behalf and talked to the owners.  Said it would take 10 days for our AMEX to be credited. 30 days later; no credit. The last conversation with Customer Service on 6/2 - they indicated we had to talk to the particular owners of the hotel, even though in the 2 previous conversations THEY talked to the owners on our behalf.  When asked for the owners' information they said they were unable to give it to us.  Then they said we would need to contact AMEX and dispute the charges.  Completely unacceptable making us do the legwork due to YOUR screw up.The net net - do not use Candlewood Suites, especially this one.  Unwilling to take responsibility and fix the problem when THEY mess up.And finally, the only person in this whole fiasco who displayed professionalism, apologized numerous times, and got us a room was the front desk agent at the Clearlake property.  Ironically, she’s probably the least paid and crapped on by her boss, but was still the most helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r123330772-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>123330772</t>
+  </si>
+  <si>
+    <t>01/19/2012</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>We stayed at Candlewood Suites for about 2 weeks, and we were quite pleased.  The staff was friendly and efficient.  The room had a nice kitchenette, wireless internet, a large closet and a good-sized bathroom.  The free laundry was great and there is coffee available all the time, which we really enjoyed.  We have no complaints and would recommend it as a good value.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r123312298-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>123312298</t>
+  </si>
+  <si>
+    <t>Nice Room &amp; Service</t>
+  </si>
+  <si>
+    <t>This would have been a 4 star rating if the quality of the room was a little better. The room was average, on the older side, with a kitchenette, full size fridge, microwave, pots &amp; pans and dishes. I couldn't get the wireless to work, but the ethernet was fine. The tub leaked profusely and the ice maker didn't work. I asked to have them fixed. The fixes were to remove the on/off lever from the ice maker, and to tighten the knob on the tub to the point where it wouldn't leak and I couldn't turn it. Not what I expected or wanted.There were free breakfast items (oatmeal packets, milk, juice, muffins) and a "store" where you could get assorted items and have them billed to your room. Word to the wise - if you have double occupancy, make a point of it because our room was actually for one person and the bed was in the corner, with only 1 nightstand. I had to crawl into bed from the foot of the bed.We had to have several large boxes of medical supplies delivered before we got there and there were no problems with that. Due to a delayed flight, we arrived several hours later than we intended and there was no problem checking in. The staff was very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>This would have been a 4 star rating if the quality of the room was a little better. The room was average, on the older side, with a kitchenette, full size fridge, microwave, pots &amp; pans and dishes. I couldn't get the wireless to work, but the ethernet was fine. The tub leaked profusely and the ice maker didn't work. I asked to have them fixed. The fixes were to remove the on/off lever from the ice maker, and to tighten the knob on the tub to the point where it wouldn't leak and I couldn't turn it. Not what I expected or wanted.There were free breakfast items (oatmeal packets, milk, juice, muffins) and a "store" where you could get assorted items and have them billed to your room. Word to the wise - if you have double occupancy, make a point of it because our room was actually for one person and the bed was in the corner, with only 1 nightstand. I had to crawl into bed from the foot of the bed.We had to have several large boxes of medical supplies delivered before we got there and there were no problems with that. Due to a delayed flight, we arrived several hours later than we intended and there was no problem checking in. The staff was very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r122370069-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>122370069</t>
+  </si>
+  <si>
+    <t>01/01/2012</t>
+  </si>
+  <si>
+    <t>One night near NASA</t>
+  </si>
+  <si>
+    <t>Last minute booking for a local place near NASA. As a Platinum member I was upgraded to a larger suite and given a coupon for 50cent purchase from the cupboard. I was surprised to find that there was a free breakfast provided. Free Wifi and a PC terminal with printing facilities is there too. Didn't use the laundry or gym.Staff really helpful and friendly.Only 3 miles to NASA so very convenient for me. Overall very impressed and would stay again.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r115497870-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>115497870</t>
+  </si>
+  <si>
+    <t>07/18/2011</t>
+  </si>
+  <si>
+    <t>Paid for the night but did not stay there!</t>
+  </si>
+  <si>
+    <t>I thought this was Towne Place Suites, a place down the street in which I had previously stayed and thought was a great value. Planning  to have a romantic get away with my sweetheart, I reserved the suite for 3 nights, with a late-arrival guarantee. I got to the hotel and realized my mistake, but decided to check in anyway. After waiting at the front desk for more than 20 minutes, someone finally arrived to check me in. I made my way down the small, dingy hallway to the room. The furniture looked old. The bedding was pilling. Only two pillows on the bed. Minimal numbers of thread-bare towels on the bars. The two-burner electric stove looked like something out of a 50's era dorm room. The room smelled...not quite right. The only positive note was that the place was cheap and gave free washer/dryers. $19 a night would not have been a low enough price!!!I instantly knew this was not to be our romantic love-nest! In tears, I hoped Towne Place had vacancies, but it was not to be. They suggested Residence Inn. So, I got a room there, but paid for Candlewood also, for the first night. RI was $139 a night, plus the Candlewood $65, but it was worth it to not have to stay in that horrible room even 1 night.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>I thought this was Towne Place Suites, a place down the street in which I had previously stayed and thought was a great value. Planning  to have a romantic get away with my sweetheart, I reserved the suite for 3 nights, with a late-arrival guarantee. I got to the hotel and realized my mistake, but decided to check in anyway. After waiting at the front desk for more than 20 minutes, someone finally arrived to check me in. I made my way down the small, dingy hallway to the room. The furniture looked old. The bedding was pilling. Only two pillows on the bed. Minimal numbers of thread-bare towels on the bars. The two-burner electric stove looked like something out of a 50's era dorm room. The room smelled...not quite right. The only positive note was that the place was cheap and gave free washer/dryers. $19 a night would not have been a low enough price!!!I instantly knew this was not to be our romantic love-nest! In tears, I hoped Towne Place had vacancies, but it was not to be. They suggested Residence Inn. So, I got a room there, but paid for Candlewood also, for the first night. RI was $139 a night, plus the Candlewood $65, but it was worth it to not have to stay in that horrible room even 1 night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r115366470-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>115366470</t>
+  </si>
+  <si>
+    <t>07/14/2011</t>
+  </si>
+  <si>
+    <t>Alright. pretty good price.</t>
+  </si>
+  <si>
+    <t>we traveled here for an expo and vacation. through priceline.com, we were able to book queen bed suites for $65 each room. we did have some trouble with the system going through, but it worked overall. the first room we recieved was fine &amp; normal. the second was unfortunately in the smoking floor. we reserved a nonsmoking room. the smell continued to reek while we slept there the first night. it wasnt until 5PM the next day, when they cleared out a nonsmoking suite for us. the queen bed was not bad. comfy enough. the room also came with a pullout chair. one of our family member slept on that throughout the trip. the bathroom is good, although we had a ineffective hair dryer. the kitchen in our room was workable. although we decided to rewash the silverware they provided. the cabinets were stocked with pots, pans, bowls, a measuring cup, spoons, and spatulas. there is no oven, but a microwave, fridge, dishwasher, and stove. in the room, there is also a small dining/work table. the hotel does provide high speed internet; cable or wireless. there is complimentary breakfast only available on the weekends from 6-9AM. there are bagels w/ cream cheese, muffins, milks, and OJ. there is a Denny's and McDonald's located nearby.  the front desk is helpful and nice. although theyre not  always at their desk, you can call them with the phones in the hotel. we only...we traveled here for an expo and vacation. through priceline.com, we were able to book queen bed suites for $65 each room. we did have some trouble with the system going through, but it worked overall. the first room we recieved was fine &amp; normal. the second was unfortunately in the smoking floor. we reserved a nonsmoking room. the smell continued to reek while we slept there the first night. it wasnt until 5PM the next day, when they cleared out a nonsmoking suite for us. the queen bed was not bad. comfy enough. the room also came with a pullout chair. one of our family member slept on that throughout the trip. the bathroom is good, although we had a ineffective hair dryer. the kitchen in our room was workable. although we decided to rewash the silverware they provided. the cabinets were stocked with pots, pans, bowls, a measuring cup, spoons, and spatulas. there is no oven, but a microwave, fridge, dishwasher, and stove. in the room, there is also a small dining/work table. the hotel does provide high speed internet; cable or wireless. there is complimentary breakfast only available on the weekends from 6-9AM. there are bagels w/ cream cheese, muffins, milks, and OJ. there is a Denny's and McDonald's located nearby.  the front desk is helpful and nice. although theyre not  always at their desk, you can call them with the phones in the hotel. we only had one problem with a clerk when we asked him a question and gave us a false answer. there is a small gym &amp; a guest cupboard and laundry that we went to every night. the cupboard is a mini convience (&lt;--misspelled) store. there is no swimming pool. oddly, housekeeping only comes weekly, not daily. overall, the stay was good with an afforadable price.MoreShow less</t>
+  </si>
+  <si>
+    <t>we traveled here for an expo and vacation. through priceline.com, we were able to book queen bed suites for $65 each room. we did have some trouble with the system going through, but it worked overall. the first room we recieved was fine &amp; normal. the second was unfortunately in the smoking floor. we reserved a nonsmoking room. the smell continued to reek while we slept there the first night. it wasnt until 5PM the next day, when they cleared out a nonsmoking suite for us. the queen bed was not bad. comfy enough. the room also came with a pullout chair. one of our family member slept on that throughout the trip. the bathroom is good, although we had a ineffective hair dryer. the kitchen in our room was workable. although we decided to rewash the silverware they provided. the cabinets were stocked with pots, pans, bowls, a measuring cup, spoons, and spatulas. there is no oven, but a microwave, fridge, dishwasher, and stove. in the room, there is also a small dining/work table. the hotel does provide high speed internet; cable or wireless. there is complimentary breakfast only available on the weekends from 6-9AM. there are bagels w/ cream cheese, muffins, milks, and OJ. there is a Denny's and McDonald's located nearby.  the front desk is helpful and nice. although theyre not  always at their desk, you can call them with the phones in the hotel. we only...we traveled here for an expo and vacation. through priceline.com, we were able to book queen bed suites for $65 each room. we did have some trouble with the system going through, but it worked overall. the first room we recieved was fine &amp; normal. the second was unfortunately in the smoking floor. we reserved a nonsmoking room. the smell continued to reek while we slept there the first night. it wasnt until 5PM the next day, when they cleared out a nonsmoking suite for us. the queen bed was not bad. comfy enough. the room also came with a pullout chair. one of our family member slept on that throughout the trip. the bathroom is good, although we had a ineffective hair dryer. the kitchen in our room was workable. although we decided to rewash the silverware they provided. the cabinets were stocked with pots, pans, bowls, a measuring cup, spoons, and spatulas. there is no oven, but a microwave, fridge, dishwasher, and stove. in the room, there is also a small dining/work table. the hotel does provide high speed internet; cable or wireless. there is complimentary breakfast only available on the weekends from 6-9AM. there are bagels w/ cream cheese, muffins, milks, and OJ. there is a Denny's and McDonald's located nearby.  the front desk is helpful and nice. although theyre not  always at their desk, you can call them with the phones in the hotel. we only had one problem with a clerk when we asked him a question and gave us a false answer. there is a small gym &amp; a guest cupboard and laundry that we went to every night. the cupboard is a mini convience (&lt;--misspelled) store. there is no swimming pool. oddly, housekeeping only comes weekly, not daily. overall, the stay was good with an afforadable price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r96347517-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>96347517</t>
+  </si>
+  <si>
+    <t>02/12/2011</t>
+  </si>
+  <si>
+    <t>Don' t go to this hotel</t>
+  </si>
+  <si>
+    <t>Customer service is horrible So do not stay at this place</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r81616078-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>81616078</t>
+  </si>
+  <si>
+    <t>09/30/2010</t>
+  </si>
+  <si>
+    <t>A Pleasant Hotel with Questionable HVAC System</t>
+  </si>
+  <si>
+    <t>The Candlewood Suites hotel was a pleasant and quiet place to stay in the Clear Lake area of Houston, TX.  The room was a one bedroom with a living room and full kitchen primarily designed for business travelers.  The room was clean and pleasant with a large kitchen table/desk arrangement for both eating a working.  The bathroom was clean and the staff was pleasant.  We liked the "Cupboard" / "Laundry Room" available to the guests.  The Cupboard was one of the most well stocked "markets" we've seen in a hotel.  There was a small, but well outfitted fitness room also.  There was no pool with the facility.
+The downside of the hotel was that none of the rooms had a king-sized bed.  Only queens were available, and my wife and I would have liked a little roomier bed.  The main complaint was the HVAC system which was a type I had not encountered before.  It could "sense" when someone was in the room and when they were not.  A placque above the control panel stated that it was equiped with an energy saving feature that could sense when someone was not in the room, and would save energy (by not runnng as much, I assume) when no one was in the room.  It said to wait 15 minutes after returning to the room for the temperature to return to what you had set it to.  The 15 minutes was more...The Candlewood Suites hotel was a pleasant and quiet place to stay in the Clear Lake area of Houston, TX.  The room was a one bedroom with a living room and full kitchen primarily designed for business travelers.  The room was clean and pleasant with a large kitchen table/desk arrangement for both eating a working.  The bathroom was clean and the staff was pleasant.  We liked the "Cupboard" / "Laundry Room" available to the guests.  The Cupboard was one of the most well stocked "markets" we've seen in a hotel.  There was a small, but well outfitted fitness room also.  There was no pool with the facility.The downside of the hotel was that none of the rooms had a king-sized bed.  Only queens were available, and my wife and I would have liked a little roomier bed.  The main complaint was the HVAC system which was a type I had not encountered before.  It could "sense" when someone was in the room and when they were not.  A placque above the control panel stated that it was equiped with an energy saving feature that could sense when someone was not in the room, and would save energy (by not runnng as much, I assume) when no one was in the room.  It said to wait 15 minutes after returning to the room for the temperature to return to what you had set it to.  The 15 minutes was more like 2-3 hours to return to temperature, and it seemed to think that when we went to bed at night, we were not there.  I found the energy saving feature to be quite annoying and not very customer friendly.  I would prefer to stay in a hotel where the HVAC lets the customer decide when and how it should be on and running, not vice versa.  I hate to think what the room might have been like if the outside temperature was in the mid to upper 90's outside instead of the 70 to 80 degree weather we had.Overall, I would recommend the hotel, but with a caveat regarding the poorly designed HVAC system.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>The Candlewood Suites hotel was a pleasant and quiet place to stay in the Clear Lake area of Houston, TX.  The room was a one bedroom with a living room and full kitchen primarily designed for business travelers.  The room was clean and pleasant with a large kitchen table/desk arrangement for both eating a working.  The bathroom was clean and the staff was pleasant.  We liked the "Cupboard" / "Laundry Room" available to the guests.  The Cupboard was one of the most well stocked "markets" we've seen in a hotel.  There was a small, but well outfitted fitness room also.  There was no pool with the facility.
+The downside of the hotel was that none of the rooms had a king-sized bed.  Only queens were available, and my wife and I would have liked a little roomier bed.  The main complaint was the HVAC system which was a type I had not encountered before.  It could "sense" when someone was in the room and when they were not.  A placque above the control panel stated that it was equiped with an energy saving feature that could sense when someone was not in the room, and would save energy (by not runnng as much, I assume) when no one was in the room.  It said to wait 15 minutes after returning to the room for the temperature to return to what you had set it to.  The 15 minutes was more...The Candlewood Suites hotel was a pleasant and quiet place to stay in the Clear Lake area of Houston, TX.  The room was a one bedroom with a living room and full kitchen primarily designed for business travelers.  The room was clean and pleasant with a large kitchen table/desk arrangement for both eating a working.  The bathroom was clean and the staff was pleasant.  We liked the "Cupboard" / "Laundry Room" available to the guests.  The Cupboard was one of the most well stocked "markets" we've seen in a hotel.  There was a small, but well outfitted fitness room also.  There was no pool with the facility.The downside of the hotel was that none of the rooms had a king-sized bed.  Only queens were available, and my wife and I would have liked a little roomier bed.  The main complaint was the HVAC system which was a type I had not encountered before.  It could "sense" when someone was in the room and when they were not.  A placque above the control panel stated that it was equiped with an energy saving feature that could sense when someone was not in the room, and would save energy (by not runnng as much, I assume) when no one was in the room.  It said to wait 15 minutes after returning to the room for the temperature to return to what you had set it to.  The 15 minutes was more like 2-3 hours to return to temperature, and it seemed to think that when we went to bed at night, we were not there.  I found the energy saving feature to be quite annoying and not very customer friendly.  I would prefer to stay in a hotel where the HVAC lets the customer decide when and how it should be on and running, not vice versa.  I hate to think what the room might have been like if the outside temperature was in the mid to upper 90's outside instead of the 70 to 80 degree weather we had.Overall, I would recommend the hotel, but with a caveat regarding the poorly designed HVAC system.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r29013129-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>29013129</t>
+  </si>
+  <si>
+    <t>04/29/2009</t>
+  </si>
+  <si>
+    <t>Great Hotel for Business Stay</t>
+  </si>
+  <si>
+    <t>This Hotel is very clean, efficient, and well located. They offer a full kitchen, even a dishwasher! Found the staff very helpful, Marvin &amp; Felicia went over and above the call of duty for me. If you have business in the area, this is your home away from home.</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r1109225-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>1109225</t>
+  </si>
+  <si>
+    <t>06/25/2003</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>I loved this place. The staff was friendly and went above the call of duty to make everything right. During making reservations I mentioned that my wife and I would be there during our anniversary and when we checked in they had a fruit basket in the room waiting.I use to stay at the Holiday-Inn family of hotels but from now on, if there is a Candlewood in the area I will stay with them.The only complaint, They have some energy saver on the A/C and while your not in the room it cuts off or cuts back, no biggie just would rather come in to a cool room.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1263,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1295,2202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>88</v>
+      </c>
+      <c r="X7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>115</v>
+      </c>
+      <c r="X10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>124</v>
+      </c>
+      <c r="X11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>145</v>
+      </c>
+      <c r="O14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>146</v>
+      </c>
+      <c r="X14" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15" t="s">
+        <v>153</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>154</v>
+      </c>
+      <c r="O15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" t="s">
+        <v>159</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>160</v>
+      </c>
+      <c r="O16" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" t="s">
+        <v>166</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>167</v>
+      </c>
+      <c r="O17" t="s">
+        <v>168</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" t="s">
+        <v>172</v>
+      </c>
+      <c r="L18" t="s">
+        <v>173</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19" t="s">
+        <v>178</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>179</v>
+      </c>
+      <c r="O19" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" t="s">
+        <v>185</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" t="s">
+        <v>189</v>
+      </c>
+      <c r="L21" t="s">
+        <v>190</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>191</v>
+      </c>
+      <c r="O21" t="s">
+        <v>192</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>193</v>
+      </c>
+      <c r="X21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" t="s">
+        <v>199</v>
+      </c>
+      <c r="L22" t="s">
+        <v>200</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>201</v>
+      </c>
+      <c r="O22" t="s">
+        <v>192</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J23" t="s">
+        <v>204</v>
+      </c>
+      <c r="K23" t="s">
+        <v>205</v>
+      </c>
+      <c r="L23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>207</v>
+      </c>
+      <c r="O23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>210</v>
+      </c>
+      <c r="J24" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24" t="s">
+        <v>212</v>
+      </c>
+      <c r="L24" t="s">
+        <v>213</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>214</v>
+      </c>
+      <c r="O24" t="s">
+        <v>168</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>217</v>
+      </c>
+      <c r="J25" t="s">
+        <v>218</v>
+      </c>
+      <c r="K25" t="s">
+        <v>219</v>
+      </c>
+      <c r="L25" t="s">
+        <v>220</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>221</v>
+      </c>
+      <c r="O25" t="s">
+        <v>192</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>222</v>
+      </c>
+      <c r="X25" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>226</v>
+      </c>
+      <c r="J26" t="s">
+        <v>227</v>
+      </c>
+      <c r="K26" t="s">
+        <v>228</v>
+      </c>
+      <c r="L26" t="s">
+        <v>229</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>230</v>
+      </c>
+      <c r="O26" t="s">
+        <v>79</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>231</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>232</v>
+      </c>
+      <c r="J27" t="s">
+        <v>227</v>
+      </c>
+      <c r="K27" t="s">
+        <v>233</v>
+      </c>
+      <c r="L27" t="s">
+        <v>234</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>230</v>
+      </c>
+      <c r="O27" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>236</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>237</v>
+      </c>
+      <c r="J28" t="s">
+        <v>238</v>
+      </c>
+      <c r="K28" t="s">
+        <v>239</v>
+      </c>
+      <c r="L28" t="s">
+        <v>240</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>241</v>
+      </c>
+      <c r="O28" t="s">
+        <v>58</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>243</v>
+      </c>
+      <c r="J29" t="s">
+        <v>244</v>
+      </c>
+      <c r="K29" t="s">
+        <v>245</v>
+      </c>
+      <c r="L29" t="s">
+        <v>246</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>247</v>
+      </c>
+      <c r="O29" t="s">
+        <v>58</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>249</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>250</v>
+      </c>
+      <c r="J30" t="s">
+        <v>251</v>
+      </c>
+      <c r="K30" t="s">
+        <v>252</v>
+      </c>
+      <c r="L30" t="s">
+        <v>253</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>247</v>
+      </c>
+      <c r="O30" t="s">
+        <v>192</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>255</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>256</v>
+      </c>
+      <c r="J31" t="s">
+        <v>257</v>
+      </c>
+      <c r="K31" t="s">
+        <v>258</v>
+      </c>
+      <c r="L31" t="s">
+        <v>259</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>261</v>
+      </c>
+      <c r="J32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K32" t="s">
+        <v>263</v>
+      </c>
+      <c r="L32" t="s">
+        <v>264</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>265</v>
+      </c>
+      <c r="O32" t="s">
+        <v>58</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>267</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>268</v>
+      </c>
+      <c r="J33" t="s">
+        <v>269</v>
+      </c>
+      <c r="K33" t="s">
+        <v>270</v>
+      </c>
+      <c r="L33" t="s">
+        <v>271</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>272</v>
+      </c>
+      <c r="O33" t="s">
+        <v>79</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>273</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>274</v>
+      </c>
+      <c r="J34" t="s">
+        <v>275</v>
+      </c>
+      <c r="K34" t="s">
+        <v>276</v>
+      </c>
+      <c r="L34" t="s">
+        <v>277</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_67.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_67.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="433">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,16 +150,61 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r548787624-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>108060</t>
+  </si>
+  <si>
+    <t>548787624</t>
+  </si>
+  <si>
+    <t>12/22/2017</t>
+  </si>
+  <si>
+    <t>Comfy</t>
+  </si>
+  <si>
+    <t>I visit Houston with my husband to meet with some friends and we stayed here. We didn't spent too much time at the Hotel we just needed a place to sleep. So we needed a comfortable bed and a quiet place. The beds were fine but if you're a light sleeper don't stay here. We barely slept, our upstairs neighboors were running from side to side for some reason at 6am. Apart from that which I know its not the hotels fault everything was fine. Staff was friendly, room was clean and spacious. I would stay here again if I'm ever on that side of Houston again but in the top floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I visit Houston with my husband to meet with some friends and we stayed here. We didn't spent too much time at the Hotel we just needed a place to sleep. So we needed a comfortable bed and a quiet place. The beds were fine but if you're a light sleeper don't stay here. We barely slept, our upstairs neighboors were running from side to side for some reason at 6am. Apart from that which I know its not the hotels fault everything was fine. Staff was friendly, room was clean and spacious. I would stay here again if I'm ever on that side of Houston again but in the top floor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r538208954-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538208954</t>
+  </si>
+  <si>
+    <t>11/04/2017</t>
+  </si>
+  <si>
+    <t>Convenient</t>
+  </si>
+  <si>
+    <t>Very convenient to the Houston Space Center. Food is very close and Tommy’s Seafood is great. Room was nice and I would recommend. Unfortunately we were there when they sprayed rooms for pest control which was not ideal for the pets I am afraid.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r509422178-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
-  </si>
-  <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>108060</t>
   </si>
   <si>
     <t>509422178</t>
@@ -192,12 +237,6 @@
 I would not hesitate to stay at a Candlewood during our lengthy road trips.  All in all it was a good experience.  We would recommend it to anybody who is facing an extended...We stayed at this property for eight weeks while our house was being renovated near by.  We had a one bedroom place with a kitchen.  It worked very well for us.  The room was comfortable, the bed was nice, the kitchen adequate and the WiFi was reliable.  There is also a free laundry which was welcome.Our experiences with the staff were first rate.  Always a smile and cheerful hello.  There are lots of videos which you can borrow and there is free coffee 24/7.  We had a couple maintenance items pop up and the staff was on them immediately and they were resolved promptly.This place is really a long term residence more than a hotel.  There is no complimentary breakfast.  There is a pantry where you can buy stuff.  Additionally, there is a McDonalds and a Dennys right next door.  We preferred to cook things in the kitchen.  There is no oven, so you just work around that.  There is a dishwasher. There were a bunch of contractor people staying.  There were a number of others like us who were there for a long time.  Housekeeping is only once a week, but you can get all the towels and consumables you want at the desk.I would not hesitate to stay at a Candlewood during our lengthy road trips.  All in all it was a good experience.  We would recommend it to anybody who is facing an extended stay.MoreShow less</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>We stayed at this property for eight weeks while our house was being renovated near by.  We had a one bedroom place with a kitchen.  It worked very well for us.  The room was comfortable, the bed was nice, the kitchen adequate and the WiFi was reliable.  There is also a free laundry which was welcome.
 Our experiences with the staff were first rate.  Always a smile and cheerful hello.  There are lots of videos which you can borrow and there is free coffee 24/7.  We had a couple maintenance items pop up and the staff was on them immediately and they were resolved promptly.
 This place is really a long term residence more than a hotel.  There is no complimentary breakfast.  There is a pantry where you can buy stuff.  Additionally, there is a McDonalds and a Dennys right next door.  We preferred to cook things in the kitchen.  There is no oven, so you just work around that.  There is a dishwasher. There were a bunch of contractor people staying.  There were a number of others like us who were there for a long time.  Housekeeping is only once a week, but you can get all the towels and consumables you want at the desk.
@@ -222,6 +261,45 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r456591261-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>456591261</t>
+  </si>
+  <si>
+    <t>02/01/2017</t>
+  </si>
+  <si>
+    <t>Love this place.</t>
+  </si>
+  <si>
+    <t>We love the candlewood....every time we travel we stay at one. My husband needs a recliner and having a full kitchen works great for us. Who needs a free breakfast...we make our own fresh in our room.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r455296885-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>455296885</t>
+  </si>
+  <si>
+    <t>01/27/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very comfortable </t>
+  </si>
+  <si>
+    <t>Check in was quick and efficient. The room was spacious and comfortable. The little snack left in my room was very nice. The evening reception and morning breakfast were very nice. The gym was well equipped. The location is convenient to many highways. A very nice stay.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r390879727-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -240,9 +318,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r389849982-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -261,9 +336,6 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Chris B, General Manager at Candlewood Suites Houston - Clear Lake, responded to this reviewResponded July 7, 2016</t>
   </si>
   <si>
@@ -297,6 +369,62 @@
     <t>They staff wasn't as friendly as the one in the Woodlands area.  They did not have a complimentary breakfast, and there was no where to sit for a lobby.  the smoking section was nice and i loved the area it was in.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r373522806-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373522806</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Very clean, spacious, comfortable and modern!  All the conveniences of home!</t>
+  </si>
+  <si>
+    <t>We have a 1 bedroom suite that is very spacious, extremely clean and comfortable.  Lots of closet space and plenty of drawers for long stays. It includes a full size refrigerator, 2 burner stovetop, dishwasher and everything needed to cook (that is shocking, because most places say they will have all you need &amp; don't). Plenty of cabinet space and a pantry in the kitchen as well. They also have a lending cupboard with other kitchen appliances, games and movies that you can check out. Downside is no stove but it is made up for with 2 gas grills outside on the patio with tables and chairs. The bed is very comfortable and a plus is having a flat screen in the bedroom as well as in the living room. The bathroom is spacious with plenty of storage and countertop space ( I hate when it's so small you have to squeeze in and out of a bathroom).  Small fitness center on site open 24/7, as well as washers and dryers open 24/7 with no charge to use!!!! Definitely an added bonus when you are a long time resident!!!!! The location of CANDLEWOOD is great. We have found everything we need within 15 miles. Tons of restaurants, grocery stores and so much more just moments away.
+My husband &amp; I travel a lot for work and this has been an amazing find. We have found the comfort and conveniences of...We have a 1 bedroom suite that is very spacious, extremely clean and comfortable.  Lots of closet space and plenty of drawers for long stays. It includes a full size refrigerator, 2 burner stovetop, dishwasher and everything needed to cook (that is shocking, because most places say they will have all you need &amp; don't). Plenty of cabinet space and a pantry in the kitchen as well. They also have a lending cupboard with other kitchen appliances, games and movies that you can check out. Downside is no stove but it is made up for with 2 gas grills outside on the patio with tables and chairs. The bed is very comfortable and a plus is having a flat screen in the bedroom as well as in the living room. The bathroom is spacious with plenty of storage and countertop space ( I hate when it's so small you have to squeeze in and out of a bathroom).  Small fitness center on site open 24/7, as well as washers and dryers open 24/7 with no charge to use!!!! Definitely an added bonus when you are a long time resident!!!!! The location of CANDLEWOOD is great. We have found everything we need within 15 miles. Tons of restaurants, grocery stores and so much more just moments away.My husband &amp; I travel a lot for work and this has been an amazing find. We have found the comfort and conveniences of home. I would highly recommend you check this place out. Chris Baruxes, the manager is absolutely awesome. He will go above &amp; beyond to make sure you are comfortable &amp; have everything you need to enjoy your stay. All of the staff we have interacted with have been very helpful and friendly as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Chris B, General Manager at Candlewood Suites Houston - Clear Lake, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>We have a 1 bedroom suite that is very spacious, extremely clean and comfortable.  Lots of closet space and plenty of drawers for long stays. It includes a full size refrigerator, 2 burner stovetop, dishwasher and everything needed to cook (that is shocking, because most places say they will have all you need &amp; don't). Plenty of cabinet space and a pantry in the kitchen as well. They also have a lending cupboard with other kitchen appliances, games and movies that you can check out. Downside is no stove but it is made up for with 2 gas grills outside on the patio with tables and chairs. The bed is very comfortable and a plus is having a flat screen in the bedroom as well as in the living room. The bathroom is spacious with plenty of storage and countertop space ( I hate when it's so small you have to squeeze in and out of a bathroom).  Small fitness center on site open 24/7, as well as washers and dryers open 24/7 with no charge to use!!!! Definitely an added bonus when you are a long time resident!!!!! The location of CANDLEWOOD is great. We have found everything we need within 15 miles. Tons of restaurants, grocery stores and so much more just moments away.
+My husband &amp; I travel a lot for work and this has been an amazing find. We have found the comfort and conveniences of...We have a 1 bedroom suite that is very spacious, extremely clean and comfortable.  Lots of closet space and plenty of drawers for long stays. It includes a full size refrigerator, 2 burner stovetop, dishwasher and everything needed to cook (that is shocking, because most places say they will have all you need &amp; don't). Plenty of cabinet space and a pantry in the kitchen as well. They also have a lending cupboard with other kitchen appliances, games and movies that you can check out. Downside is no stove but it is made up for with 2 gas grills outside on the patio with tables and chairs. The bed is very comfortable and a plus is having a flat screen in the bedroom as well as in the living room. The bathroom is spacious with plenty of storage and countertop space ( I hate when it's so small you have to squeeze in and out of a bathroom).  Small fitness center on site open 24/7, as well as washers and dryers open 24/7 with no charge to use!!!! Definitely an added bonus when you are a long time resident!!!!! The location of CANDLEWOOD is great. We have found everything we need within 15 miles. Tons of restaurants, grocery stores and so much more just moments away.My husband &amp; I travel a lot for work and this has been an amazing find. We have found the comfort and conveniences of home. I would highly recommend you check this place out. Chris Baruxes, the manager is absolutely awesome. He will go above &amp; beyond to make sure you are comfortable &amp; have everything you need to enjoy your stay. All of the staff we have interacted with have been very helpful and friendly as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r358581327-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>358581327</t>
+  </si>
+  <si>
+    <t>03/25/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>This is a great hotel to stay at in good proximity to many businesses and restaurants.  Stayed here while my wife was hospitalized at Texas Medical Center while the rodeo was in town.  Staff was great especially Chris the GM and Sheena at the front desk.  It is a very clean hotel, large lighted parking lot and very secure.  McDonald's is next door and many restaurants and stores in the area.  A little difficult to get to right now due to construction on the Gulf Freeway I-45 and closed exits for Bay Area Blvd, but worth the effort to get here.  Free washers and dryers!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Chris B, General Manager at Candlewood Suites Houston - Clear Lake, responded to this reviewResponded March 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2016</t>
+  </si>
+  <si>
+    <t>This is a great hotel to stay at in good proximity to many businesses and restaurants.  Stayed here while my wife was hospitalized at Texas Medical Center while the rodeo was in town.  Staff was great especially Chris the GM and Sheena at the front desk.  It is a very clean hotel, large lighted parking lot and very secure.  McDonald's is next door and many restaurants and stores in the area.  A little difficult to get to right now due to construction on the Gulf Freeway I-45 and closed exits for Bay Area Blvd, but worth the effort to get here.  Free washers and dryers!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r358251794-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -312,9 +440,6 @@
     <t>The hotel staff provides an excellent facility with clean rooms, kitchens, and appliances. There's a "lending" facility for DVDs and smaller appliances, free of charge. Great place to stay for short or long visit. Gas, convenience, and restaurants nearby.MoreShow less</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>Chris B, General Manager at Candlewood Suites Houston - Clear Lake, responded to this reviewResponded March 25, 2016</t>
   </si>
   <si>
@@ -378,6 +503,60 @@
     <t>I loved the layout. The kitchen had all I needed (but the instruction booklet to the microwave/toaster oven, making me guess how to use it properly), The desk with adjacent dinnertable was a good idea. It made it possible for me to cook dinner for my two colleagues and have a comfortable meal with them.The idea of using a wall filling desk-top gave me lots of space to put my stuff on it. I felt it was a much better design than what you normal have: separate desk and cupboard, which often leads to stuff falling off on the floor. The bed was comfortable as was the lazy chair.The three wide drawers under the desk-top provided ample space for my clothing and other items. The deep wall cupboard was large enough to hide all my luggage from view and to hang my cloths.Being able to open de window, which had a well fitted screen to keep musquitoes out was convenient to air the room. The only thing missing was an inroom safe to store my valuables.There is a big, 24 hrs supermarket close by. Right adjacent to the hotel there are several fastfood restaurants. Exiting the hotel's entrance street to the right brings you to several other restaurants , There is even a nice sushi restaurant in the stripmall nearby (across the street,  at the back on the left side of the strip mall)).More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r302680285-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>302680285</t>
+  </si>
+  <si>
+    <t>08/23/2015</t>
+  </si>
+  <si>
+    <t>Our Second Stay Here</t>
+  </si>
+  <si>
+    <t>We liked our first stay, so when we needed a place to stay for my daughter's wedding reception -- we returned. Still like the hotel. Easy drive to Kemah. Great room with plenty of space. We love having full sized refrigerator and we always sleep well. Quiet room. Friendly desk staff. A second great stay. For the price, we love this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Chris B, General Manager at Candlewood Suites Houston - Clear Lake, responded to this reviewResponded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2015</t>
+  </si>
+  <si>
+    <t>We liked our first stay, so when we needed a place to stay for my daughter's wedding reception -- we returned. Still like the hotel. Easy drive to Kemah. Great room with plenty of space. We love having full sized refrigerator and we always sleep well. Quiet room. Friendly desk staff. A second great stay. For the price, we love this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r293759808-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>293759808</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Very nice...but</t>
+  </si>
+  <si>
+    <t>This hotel was very nice, clean and comfortable. The staff was great. The neighborhood was good and proximity to everything; not real close but ok. We love the area anyway. The ONLY complaint I have is really due to my own fault for not checking further is: no pool and no breakfast. Other than those things, this is a very nice place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Chris B, General Manager at Candlewood Suites Houston - Clear Lake, responded to this reviewResponded July 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2015</t>
+  </si>
+  <si>
+    <t>This hotel was very nice, clean and comfortable. The staff was great. The neighborhood was good and proximity to everything; not real close but ok. We love the area anyway. The ONLY complaint I have is really due to my own fault for not checking further is: no pool and no breakfast. Other than those things, this is a very nice place to stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r254159768-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -444,6 +623,66 @@
     <t>We had a great stay at a great price. The staff were very friendly. Our room was quiet all night. The bed was very good. We loved having the full size refrigerator and ice maker in the room. We turned our ice maker off at night, as even at home we know you will hear ice drop if you don't. We where visiting to shop for a wedding dress with my daughter. The room was clean, and the facility was decorated for Halloween/Fall very tastefully. We will be attending the wedding reception next year, and this is where we will stay and will encourage others as well. Near some shopping for things you need. Very close to Space Center Houston at Johnson Space Center.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r210738004-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>210738004</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>Probably not a hotel for a person who reads reviews</t>
+  </si>
+  <si>
+    <t>Stayed here for business on a weekend.  This hotel was not of my choosing, as I've stayed here before and it is out of the way for my needs.  But if you are looking to save money then this place will do just fine.
+Staff: I only had one interaction as I checked in, and although friendly, not quickly attentive.
+Hallways: Looking there age.  Old carpet, dust in the corners, and worst of all was a strong cigarette smell - at least on the 3rd floor hallway.
+Room: Fortunately, when I got in my room on the 3rd floor it didn't smell like smoke.  In fact, it looks like there has been a recent update with modern fixtures/cabinets.  Everything was clean and the bed comfortable.  Both nights were restful with no annoying sounds or smells.
+Buyer beware: This is an extended stay.  In fact, as opposed to some other extended stays, no one will empty the garbage, or even step in the room during a 2 night stay.  And no breakfast, accept for a few snack and frozen food items to purchase.  There is a workout room, but I did not use it.
+Pros: My 3rd floor room was updated, clean and comfortable.  Value (aka cheap)
+Cons: Cigarette smell in hallway of 3rd floor - enough so that some others in my party chose a 2nd floor room.  Few staff - somewhat inattentive.  No daily garbage, towel, bed service.  No...Stayed here for business on a weekend.  This hotel was not of my choosing, as I've stayed here before and it is out of the way for my needs.  But if you are looking to save money then this place will do just fine.Staff: I only had one interaction as I checked in, and although friendly, not quickly attentive.Hallways: Looking there age.  Old carpet, dust in the corners, and worst of all was a strong cigarette smell - at least on the 3rd floor hallway.Room: Fortunately, when I got in my room on the 3rd floor it didn't smell like smoke.  In fact, it looks like there has been a recent update with modern fixtures/cabinets.  Everything was clean and the bed comfortable.  Both nights were restful with no annoying sounds or smells.Buyer beware: This is an extended stay.  In fact, as opposed to some other extended stays, no one will empty the garbage, or even step in the room during a 2 night stay.  And no breakfast, accept for a few snack and frozen food items to purchase.  There is a workout room, but I did not use it.Pros: My 3rd floor room was updated, clean and comfortable.  Value (aka cheap)Cons: Cigarette smell in hallway of 3rd floor - enough so that some others in my party chose a 2nd floor room.  Few staff - somewhat inattentive.  No daily garbage, towel, bed service.  No breakfast.  Location - out of the way for my needs.Recommendation: stay here only if it such a good deal that no other place makes sense.  If you're not a smoker - beware, but there are some OK rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston - Clear Lake, responded to this reviewResponded July 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for business on a weekend.  This hotel was not of my choosing, as I've stayed here before and it is out of the way for my needs.  But if you are looking to save money then this place will do just fine.
+Staff: I only had one interaction as I checked in, and although friendly, not quickly attentive.
+Hallways: Looking there age.  Old carpet, dust in the corners, and worst of all was a strong cigarette smell - at least on the 3rd floor hallway.
+Room: Fortunately, when I got in my room on the 3rd floor it didn't smell like smoke.  In fact, it looks like there has been a recent update with modern fixtures/cabinets.  Everything was clean and the bed comfortable.  Both nights were restful with no annoying sounds or smells.
+Buyer beware: This is an extended stay.  In fact, as opposed to some other extended stays, no one will empty the garbage, or even step in the room during a 2 night stay.  And no breakfast, accept for a few snack and frozen food items to purchase.  There is a workout room, but I did not use it.
+Pros: My 3rd floor room was updated, clean and comfortable.  Value (aka cheap)
+Cons: Cigarette smell in hallway of 3rd floor - enough so that some others in my party chose a 2nd floor room.  Few staff - somewhat inattentive.  No daily garbage, towel, bed service.  No...Stayed here for business on a weekend.  This hotel was not of my choosing, as I've stayed here before and it is out of the way for my needs.  But if you are looking to save money then this place will do just fine.Staff: I only had one interaction as I checked in, and although friendly, not quickly attentive.Hallways: Looking there age.  Old carpet, dust in the corners, and worst of all was a strong cigarette smell - at least on the 3rd floor hallway.Room: Fortunately, when I got in my room on the 3rd floor it didn't smell like smoke.  In fact, it looks like there has been a recent update with modern fixtures/cabinets.  Everything was clean and the bed comfortable.  Both nights were restful with no annoying sounds or smells.Buyer beware: This is an extended stay.  In fact, as opposed to some other extended stays, no one will empty the garbage, or even step in the room during a 2 night stay.  And no breakfast, accept for a few snack and frozen food items to purchase.  There is a workout room, but I did not use it.Pros: My 3rd floor room was updated, clean and comfortable.  Value (aka cheap)Cons: Cigarette smell in hallway of 3rd floor - enough so that some others in my party chose a 2nd floor room.  Few staff - somewhat inattentive.  No daily garbage, towel, bed service.  No breakfast.  Location - out of the way for my needs.Recommendation: stay here only if it such a good deal that no other place makes sense.  If you're not a smoker - beware, but there are some OK rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r207019368-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207019368</t>
+  </si>
+  <si>
+    <t>05/25/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel and room</t>
+  </si>
+  <si>
+    <t>This is a nice hotel. Good amenities, both in room and on property. The room was quiet, except for the ice maker in the fridge. But, that's not a big deal really, since you don't have to deal with ice buckets and tracking down the machine. It is quiet, even though I was just across the hall from the elevator. The wireless internet worked fine, I appreciate that it isn't just wide open to everyone, even with having to enter the code each night. It did seem a bit slow at times, but maybe I'm just used to my high speed.This was my second trip to Houston, I've stayed here both times. This visit was better than the first. No problems with the room. I couldn't figure out what the thermostat on the wall was for, other than to report the temperature. A/C unit wasn't any louder than any place else I've stayed. My only real issues this time are with the elevator. It is very slow, both to respond to the call and in traveling between floors. And, in the afternoon/evening, once things have warmed up, it has a fairly heavy smell of cigarette smoke.Nothing earth shattering. It is a nice stay, close to where I work when traveling to Houston. Reasonable value.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>This is a nice hotel. Good amenities, both in room and on property. The room was quiet, except for the ice maker in the fridge. But, that's not a big deal really, since you don't have to deal with ice buckets and tracking down the machine. It is quiet, even though I was just across the hall from the elevator. The wireless internet worked fine, I appreciate that it isn't just wide open to everyone, even with having to enter the code each night. It did seem a bit slow at times, but maybe I'm just used to my high speed.This was my second trip to Houston, I've stayed here both times. This visit was better than the first. No problems with the room. I couldn't figure out what the thermostat on the wall was for, other than to report the temperature. A/C unit wasn't any louder than any place else I've stayed. My only real issues this time are with the elevator. It is very slow, both to respond to the call and in traveling between floors. And, in the afternoon/evening, once things have warmed up, it has a fairly heavy smell of cigarette smoke.Nothing earth shattering. It is a nice stay, close to where I work when traveling to Houston. Reasonable value.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r206907919-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -459,9 +698,6 @@
     <t>The rooms were nicely designed and clean and properly equipped for cooking. My point of contention is the HVAC system which is designed to save energy when the room was not occupied. The problem is once you turn all the lights off and go to bed the system deems you are not in the room and turns the A/C off, over my 5 night stay I woke up sweating every night. Not so smart if you ask this sleepless traveler.  Also the wall control unit is not access able so you have to use the window unit itself to control the temperature when it allows you to. Another irritant is you either have to use the overhead bedroom light on or no lights on at all, I had to go buy a cheap lamp so I could see my remotes to watch the TV at night.MoreShow less</t>
   </si>
   <si>
-    <t>May 2014</t>
-  </si>
-  <si>
     <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston - Clear Lake, responded to this reviewResponded June 14, 2014</t>
   </si>
   <si>
@@ -510,6 +746,42 @@
     <t>There were a couple problems with the room, none of which I mentioned to management.  The first was torn fabric (pleather?) seat.  The next day when I came back, they had switched out the chair!  Unheard of that they did this without me reporting it.  A refreshing change where housekeeping usually does not notice or report problems, or maintenance does not proactively fix.The second item was a very rusted air conditioning unit.  It was very rusted.  But, obviously, that takes more money.  It didn't bother me and still seemed to work fine.The room was very comfortable.  I love to two rooms concept and the desks in Candlewood suites are the best layout anywhere, plenty of light and plugs to work on my computer and plug all my phones into.Windows actually open which I love, and the room was extremely quiet.Candlewood Suites is a small step below Embassy or Homewood, but I'd always stay here as there is ample parking, staff was friendly and efficient and was a good value.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r194521301-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194521301</t>
+  </si>
+  <si>
+    <t>02/18/2014</t>
+  </si>
+  <si>
+    <t>A Pleasant Stay!</t>
+  </si>
+  <si>
+    <t>We stayed here for one night to shop for sailboats.  It is a very nice hotel.  It would be a good place to stay if you had business in the area and needed to stay for several nights.  It reminds me of The Residence Inn when they first started offering homes away from home back in the 80s.  It isn't fancy, but it has everything you'd need to make an extended stay comfortable.  It's a little out of the way from tourist attractions, but we know our way around.  The staff was VERY friendly, and everything measured up to how it is presented on their website.  Because they have a full kitchen in each room, there isn't a complimentary breakfast like many other hotels.  But, they have a Market Place in the lobby, with complimentary coffee and items for purchase at reasonable prices.  There are several grocery stores close by if you needed to stock up on items for your room's kitchen.  If you want a pleasant, comfortable place to stay for business or pleasure I recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for one night to shop for sailboats.  It is a very nice hotel.  It would be a good place to stay if you had business in the area and needed to stay for several nights.  It reminds me of The Residence Inn when they first started offering homes away from home back in the 80s.  It isn't fancy, but it has everything you'd need to make an extended stay comfortable.  It's a little out of the way from tourist attractions, but we know our way around.  The staff was VERY friendly, and everything measured up to how it is presented on their website.  Because they have a full kitchen in each room, there isn't a complimentary breakfast like many other hotels.  But, they have a Market Place in the lobby, with complimentary coffee and items for purchase at reasonable prices.  There are several grocery stores close by if you needed to stock up on items for your room's kitchen.  If you want a pleasant, comfortable place to stay for business or pleasure I recommend this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r193391732-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>193391732</t>
+  </si>
+  <si>
+    <t>02/07/2014</t>
+  </si>
+  <si>
+    <t>Great overnight near NASA</t>
+  </si>
+  <si>
+    <t>We spent a brief overnight here while visiting NASA. Staff was really friendly, all business was quick and neat.Room was clean, usual style of Candlewood Suites. Bed is European king size - as in not 200x200cm but 160x200cm which was just fine. Great pillows.The place has free washers/driers which is a real nice touch and we took advantage of this :)The cupboard is pretty well stocked with whatever you may need (from breakfast to frozen/microwave food to ice cream)For the price paid we couldn't have asked for better.If in the area again we'll surely stay here.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r187633721-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -567,6 +839,42 @@
     <t>This was our first stay at a Candlewood Suites and we were very impressed.  We didn't use all the facilities, but the hotel was clean and the woman at the front desk was very nice and helpful with directions.  We had  room on the 1st floor and it was immaculate (and trust me, I am OCD and look at everything before we settle in).  It was a studio and it was a great size.  The bed, sheets and pillows were very comfortable and the tv was the in the perfect spot.  The kitchen had everything we needed for a 1 night stay, and a lot more we could have used if we had stayed longer.  The bathroom was modern and so clean... great water pressure!  Loved the inset sink.  Towels were so fluffy.  We even 'rented/borrowed' some DVD's from the front desk that they have available for their customers.  We will definitely be staying at Candlewood Suites again!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r168910019-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>168910019</t>
+  </si>
+  <si>
+    <t>07/24/2013</t>
+  </si>
+  <si>
+    <t>Excellent small hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel was very good. Suite was very comfortable, spacious. It had more than what we were expecting. Everything we needed was right there in the suite. The bed was awesome. Front desk lady was very friendly. Hotel is close to hwy, donor has easy access. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r166426421-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166426421</t>
+  </si>
+  <si>
+    <t>07/05/2013</t>
+  </si>
+  <si>
+    <t>Very good stay.</t>
+  </si>
+  <si>
+    <t>Would've given a 5 in all categories, except for the location. The area is fine and safe, near enough to many close retail and dining places... but it isn't close at all to the destination attractions around Clear Lake and the Boardwalk. However, it was the only place we could find for the fully-booked July 4 weekend. Very suitable for long-term stays.PROS:-Large, roomy, very clean, nice decor, modern suites. Quiet... couldn't hear sounds from outside the room.-Fully furnished kitchen, with stove top, microwave, full refrigerator, dishwasher, pots, pans, -utensils, dishware, coffeemaker, etc.-Large, long wall-desk and work area.-Very comfortable queen bed, with choice of pillow types by request.-Large screen HDTV, with HD programming.-Complementary DVD movie lending library.-Large, clean bathroom, with thick fluffy towels-Well-equipped gym.-Friendly, helpful, professional staff.-Free onsite washer and dryer, and complementary detergent.CONS:-Location is poor, if Clear Lake access is the goal. (Otherwise good for NASA access)-Weekly housekeeping only. (It's typical of long-term stay hotels)-Guest must self-exchange linens and towels. (Except if it coincides with weekly housekeeping)-Sloooow internet access. Wireless signal is strong, but with many guests online at same time there's insufficient broadband width. Had to use my cell phone as WIFI hotpot to get work done.-No pool.-No breakfast.Would certainly stay here again; and would recommend it to others, with the above caveats.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Would've given a 5 in all categories, except for the location. The area is fine and safe, near enough to many close retail and dining places... but it isn't close at all to the destination attractions around Clear Lake and the Boardwalk. However, it was the only place we could find for the fully-booked July 4 weekend. Very suitable for long-term stays.PROS:-Large, roomy, very clean, nice decor, modern suites. Quiet... couldn't hear sounds from outside the room.-Fully furnished kitchen, with stove top, microwave, full refrigerator, dishwasher, pots, pans, -utensils, dishware, coffeemaker, etc.-Large, long wall-desk and work area.-Very comfortable queen bed, with choice of pillow types by request.-Large screen HDTV, with HD programming.-Complementary DVD movie lending library.-Large, clean bathroom, with thick fluffy towels-Well-equipped gym.-Friendly, helpful, professional staff.-Free onsite washer and dryer, and complementary detergent.CONS:-Location is poor, if Clear Lake access is the goal. (Otherwise good for NASA access)-Weekly housekeeping only. (It's typical of long-term stay hotels)-Guest must self-exchange linens and towels. (Except if it coincides with weekly housekeeping)-Sloooow internet access. Wireless signal is strong, but with many guests online at same time there's insufficient broadband width. Had to use my cell phone as WIFI hotpot to get work done.-No pool.-No breakfast.Would certainly stay here again; and would recommend it to others, with the above caveats.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r163517271-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -628,6 +936,39 @@
   </si>
   <si>
     <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r154134534-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154134534</t>
+  </si>
+  <si>
+    <t>03/09/2013</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>Location: Great location, a lot of nearby stores and not far away from the Tanger Outlet and Galveston.Room: Extremely impressed. Very Contemporary!Staff: Could tell was annoyed by any customer asking questions and was not friendly. Pet Friendly: Only $15 for pet to stay.Restroom: Only complaint was that the toilet had yellow stains, gross! Overall would stay again and recommend to others.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r148402646-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148402646</t>
+  </si>
+  <si>
+    <t>12/30/2012</t>
+  </si>
+  <si>
+    <t>My STAYS ARE improving here..I like the changes.</t>
+  </si>
+  <si>
+    <t>Stop here a few times a year. spent 2, 3 Xmas here.  enjoyed the nonsmoking changes and upgrades to the rooms. things are slowly getting better. great front desk staff. awesome location to restaurants. great value for the reasonable rate.  great overall bargain here in safe great location. only complaint are mainly are with other guest. smoking rooms vents leak into nonsmoking rooms makes my allergies and sleep quality terrible.  my recent stay Dec 23-26  was peaceful although with  room change. Changed rooms and everything was peaceful and perfect until check out and thank you Candlewood suites houston/ clear lake:) thank god no kids running wild this time.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r134414988-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
@@ -711,6 +1052,51 @@
 First and second conversations; the Customer Service rep contacted the hotels on our behalf and talked to the owners.  Said it would take 10 days for our AMEX to...On April 28 around 6pm made a reservation via 3rd party online reservation system and received email confirmation the reservation was made; even had a confirmation #.  Arrived at hotel and a very nice front desk agent (I think her name was N'sha)? told us their were no rooms available and there had not been any available since 3pm that day.  She said we were the 3rd reservation she had to deal with, same exact problem.  She apologized and made a reservation for us at the Candlewood Suites in Deer Park.  During the time she was making the reservation for us another couple walked in.  Guess what?  They had the same exact problem even though they had email confirmation too.We asked if our AMEX card would be charged.  She said it shouldn't be since the reservation wasn’t in their reservation system.  Checked AMEX a week later and of course we were charged.  In addition, Candlewood Suites customer service said - as per their policy - we should not be charged for the Deer Park stay due to it being their screw up.  Note: We had 3 separate conversations with Customer Service and each agent said this is their policy - credit both stays – we did not bring it up. First and second conversations; the Customer Service rep contacted the hotels on our behalf and talked to the owners.  Said it would take 10 days for our AMEX to be credited. 30 days later; no credit. The last conversation with Customer Service on 6/2 - they indicated we had to talk to the particular owners of the hotel, even though in the 2 previous conversations THEY talked to the owners on our behalf.  When asked for the owners' information they said they were unable to give it to us.  Then they said we would need to contact AMEX and dispute the charges.  Completely unacceptable making us do the legwork due to YOUR screw up.The net net - do not use Candlewood Suites, especially this one.  Unwilling to take responsibility and fix the problem when THEY mess up.And finally, the only person in this whole fiasco who displayed professionalism, apologized numerous times, and got us a room was the front desk agent at the Clearlake property.  Ironically, she’s probably the least paid and crapped on by her boss, but was still the most helpful.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r130466773-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130466773</t>
+  </si>
+  <si>
+    <t>05/23/2012</t>
+  </si>
+  <si>
+    <t>decent room for price</t>
+  </si>
+  <si>
+    <t>Rooms were outdated, needs updating - especially bathroom. Location was the reason for the stay at this location. Has McDonalds next door for meals. The kitchenette was a nice additions.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r127045491-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127045491</t>
+  </si>
+  <si>
+    <t>03/31/2012</t>
+  </si>
+  <si>
+    <t>Not for the discerning</t>
+  </si>
+  <si>
+    <t>I'm forced to stay here for work on occasion.  Never very enjoyable.  The rooms smell stale - like too many have been smoking rooms in the distant past, but at least they don't smell like smoke anymore.  They are suites that have a kitchenette with plates, fridge, silverware - but it is basic stuff - laminate, coil range almond fridge. There is not couch or feeling of a separate room.  The AC unit a little loud - thermostat on wall didn't work - had to use controls on the unit.Don't expect your bed made daily, when they say weekly service, they mean it, no one will go in your room.The cleanliness is OK.  seems a little dusty by the AC unit and the corners, but at least it seems clean where it's important - bath and bed.TV's are old, not flat screen or high def.  Carpet looks older than newer and repair where taking place in the hall.Staff is helpful, not exactly all smiles, but not rude either.I'm not sure why one would choose to stay here, unless they are getting a really good deal...MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston - Clear Lake, responded to this reviewResponded May 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2012</t>
+  </si>
+  <si>
+    <t>I'm forced to stay here for work on occasion.  Never very enjoyable.  The rooms smell stale - like too many have been smoking rooms in the distant past, but at least they don't smell like smoke anymore.  They are suites that have a kitchenette with plates, fridge, silverware - but it is basic stuff - laminate, coil range almond fridge. There is not couch or feeling of a separate room.  The AC unit a little loud - thermostat on wall didn't work - had to use controls on the unit.Don't expect your bed made daily, when they say weekly service, they mean it, no one will go in your room.The cleanliness is OK.  seems a little dusty by the AC unit and the corners, but at least it seems clean where it's important - bath and bed.TV's are old, not flat screen or high def.  Carpet looks older than newer and repair where taking place in the hall.Staff is helpful, not exactly all smiles, but not rude either.I'm not sure why one would choose to stay here, unless they are getting a really good deal...More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r123330772-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -762,6 +1148,39 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r120957252-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120957252</t>
+  </si>
+  <si>
+    <t>11/23/2011</t>
+  </si>
+  <si>
+    <t>Great Place and good price</t>
+  </si>
+  <si>
+    <t>Only thing missing was a king size bed. Rooms were a little cramped but everything was there.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r120879602-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120879602</t>
+  </si>
+  <si>
+    <t>11/21/2011</t>
+  </si>
+  <si>
+    <t>Practical and clean</t>
+  </si>
+  <si>
+    <t>Stayed for just one night during visit to JSC and USRA. Good location for that. Feels small scale and familiar. A bit hard to see it from the Bay Area Blvd. Complimentary WIFI nice.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r115497870-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -814,6 +1233,56 @@
   </si>
   <si>
     <t>Customer service is horrible So do not stay at this place</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r95974462-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>95974462</t>
+  </si>
+  <si>
+    <t>02/08/2011</t>
+  </si>
+  <si>
+    <t>Close to Nasa and allows pets</t>
+  </si>
+  <si>
+    <t>I stayed here last night. I felt the price was not bad. I paid $105/taxes and all for a queen suite with kitchen included. The pet deposit was only $15 and well worth it. Residence/Marriotts were charging $100/stay. The staff was nice/ very helpful. There is no one manning desk after 11p but they can be reached. They have a little supply of snacks etc that they sell at reasonable prices on the honor system. You leave money or write down what you got. Also gym/laundry/internet available. The rooms have dvd/vcr and kitchen well enough supplied to cook if you desired. Nice clean comfortable bed/nice towels. Overall good experience. Mostly used by travelling professionals I believe. Felt safe as it is also next door to police station. Nasa was right around the corner which was what we were there to see.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>I stayed here last night. I felt the price was not bad. I paid $105/taxes and all for a queen suite with kitchen included. The pet deposit was only $15 and well worth it. Residence/Marriotts were charging $100/stay. The staff was nice/ very helpful. There is no one manning desk after 11p but they can be reached. They have a little supply of snacks etc that they sell at reasonable prices on the honor system. You leave money or write down what you got. Also gym/laundry/internet available. The rooms have dvd/vcr and kitchen well enough supplied to cook if you desired. Nice clean comfortable bed/nice towels. Overall good experience. Mostly used by travelling professionals I believe. Felt safe as it is also next door to police station. Nasa was right around the corner which was what we were there to see.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r89075388-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>89075388</t>
+  </si>
+  <si>
+    <t>12/05/2010</t>
+  </si>
+  <si>
+    <t>Good for a cheap stay!</t>
+  </si>
+  <si>
+    <t>Overall this Candlewood Suites is acceptable. I normally prefer Holiday Inn Express or Hampton Inn when choosing a mid range hotel, but given we were just looking for a cheap night to get an extra promotional credit, we were happy with this location at less than $60 this location is a good value.  
+We knew we would have fewer perks, but would also have all we needed for the night. Candlewood is a designed as a limited service extended stay so do not expect your typical mid range business traveler perks. However the location is clean, staff is friendly, and if you know what to expect with the Candlewood brand you will not be disappointed with this location. 
+I would imagine in most instances you would have a car at this location as we did, but if you do not have a car there are plenty of dining options within a 5-7 minute walk. With a car you have nearly unlimited options within 10 minutes. Right next door is a Denny's and McDonalds if you do not want to venture out.  
+This Candlewood, as all others, does not have front desk staff from 11pm till 7am, though they do say that they have on site staff all the time. We booked a studio suite and that is what we were given. If you are staying for more than one night there is limited housekeeping service. 
+The room and common areas...Overall this Candlewood Suites is acceptable. I normally prefer Holiday Inn Express or Hampton Inn when choosing a mid range hotel, but given we were just looking for a cheap night to get an extra promotional credit, we were happy with this location at less than $60 this location is a good value.  We knew we would have fewer perks, but would also have all we needed for the night. Candlewood is a designed as a limited service extended stay so do not expect your typical mid range business traveler perks. However the location is clean, staff is friendly, and if you know what to expect with the Candlewood brand you will not be disappointed with this location. I would imagine in most instances you would have a car at this location as we did, but if you do not have a car there are plenty of dining options within a 5-7 minute walk. With a car you have nearly unlimited options within 10 minutes. Right next door is a Denny's and McDonalds if you do not want to venture out.  This Candlewood, as all others, does not have front desk staff from 11pm till 7am, though they do say that they have on site staff all the time. We booked a studio suite and that is what we were given. If you are staying for more than one night there is limited housekeeping service. The room and common areas were clean though a bit dated. All rooms have a nice size fridge, microwave, sink, kitchenware, microwave, and kitchen table. The room has a work desk, leather chair, and Queen size bed. The bed was comfortable, though the bed is very close to the wall on one side. The rooms are not very large, but are comfortable. The climate control system worked well, and the blower can be set to on for white noise while still using the air conditioning. The room has a TV, VCR, DVD Player, CD player, etc. The TV is a old CRT style TV but had plenty of channels. The free wifi service was easy to connect to and was relatively fast for a hotel. Carpet, furnishing's linens, and furniture are all clean but showing some wear and tear. As for the common facilities, they have quite a few unique offerings. Outside there is a nice sitting area with a gas grill available. (No pool at Candlewood.) Inside, they have a small but sufficient workout room with treadmill, weight machine, bikes, and some other equipment. They have free use of washers and dryers to do your laundry. They also have an honor system for convenience foods - just choose and charge to your room or pay cash. Also, they offer free video and DVD checkout. One major thing that I always find lacking at Candlewoods (thus the reason I do not choose them for business trips often) is that they do not have a business center or guest printer. Keep this limitation in mind if you are in need of printing. I would recommend this hotel for either an extended stay or a quick on night stay if you are looking for a budget option in the Clear Lake area.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>Overall this Candlewood Suites is acceptable. I normally prefer Holiday Inn Express or Hampton Inn when choosing a mid range hotel, but given we were just looking for a cheap night to get an extra promotional credit, we were happy with this location at less than $60 this location is a good value.  
+We knew we would have fewer perks, but would also have all we needed for the night. Candlewood is a designed as a limited service extended stay so do not expect your typical mid range business traveler perks. However the location is clean, staff is friendly, and if you know what to expect with the Candlewood brand you will not be disappointed with this location. 
+I would imagine in most instances you would have a car at this location as we did, but if you do not have a car there are plenty of dining options within a 5-7 minute walk. With a car you have nearly unlimited options within 10 minutes. Right next door is a Denny's and McDonalds if you do not want to venture out.  
+This Candlewood, as all others, does not have front desk staff from 11pm till 7am, though they do say that they have on site staff all the time. We booked a studio suite and that is what we were given. If you are staying for more than one night there is limited housekeeping service. 
+The room and common areas...Overall this Candlewood Suites is acceptable. I normally prefer Holiday Inn Express or Hampton Inn when choosing a mid range hotel, but given we were just looking for a cheap night to get an extra promotional credit, we were happy with this location at less than $60 this location is a good value.  We knew we would have fewer perks, but would also have all we needed for the night. Candlewood is a designed as a limited service extended stay so do not expect your typical mid range business traveler perks. However the location is clean, staff is friendly, and if you know what to expect with the Candlewood brand you will not be disappointed with this location. I would imagine in most instances you would have a car at this location as we did, but if you do not have a car there are plenty of dining options within a 5-7 minute walk. With a car you have nearly unlimited options within 10 minutes. Right next door is a Denny's and McDonalds if you do not want to venture out.  This Candlewood, as all others, does not have front desk staff from 11pm till 7am, though they do say that they have on site staff all the time. We booked a studio suite and that is what we were given. If you are staying for more than one night there is limited housekeeping service. The room and common areas were clean though a bit dated. All rooms have a nice size fridge, microwave, sink, kitchenware, microwave, and kitchen table. The room has a work desk, leather chair, and Queen size bed. The bed was comfortable, though the bed is very close to the wall on one side. The rooms are not very large, but are comfortable. The climate control system worked well, and the blower can be set to on for white noise while still using the air conditioning. The room has a TV, VCR, DVD Player, CD player, etc. The TV is a old CRT style TV but had plenty of channels. The free wifi service was easy to connect to and was relatively fast for a hotel. Carpet, furnishing's linens, and furniture are all clean but showing some wear and tear. As for the common facilities, they have quite a few unique offerings. Outside there is a nice sitting area with a gas grill available. (No pool at Candlewood.) Inside, they have a small but sufficient workout room with treadmill, weight machine, bikes, and some other equipment. They have free use of washers and dryers to do your laundry. They also have an honor system for convenience foods - just choose and charge to your room or pay cash. Also, they offer free video and DVD checkout. One major thing that I always find lacking at Candlewoods (thus the reason I do not choose them for business trips often) is that they do not have a business center or guest printer. Keep this limitation in mind if you are in need of printing. I would recommend this hotel for either an extended stay or a quick on night stay if you are looking for a budget option in the Clear Lake area.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r81616078-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
@@ -870,6 +1339,24 @@
   </si>
   <si>
     <t>I loved this place. The staff was friendly and went above the call of duty to make everything right. During making reservations I mentioned that my wife and I would be there during our anniversary and when we checked in they had a fruit basket in the room waiting.I use to stay at the Holiday-Inn family of hotels but from now on, if there is a Candlewood in the area I will stay with them.The only complaint, They have some energy saver on the A/C and while your not in the room it cuts off or cuts back, no biggie just would rather come in to a cool room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108060-r860270-Candlewood_Suites_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>860270</t>
+  </si>
+  <si>
+    <t>02/22/2003</t>
+  </si>
+  <si>
+    <t>Great Place to stay if you can get the right price!</t>
+  </si>
+  <si>
+    <t>I am currently staying at the Candlewood Suites in the Clear Lake area and it has been an entirely pleasing experience.  The room, which has a full kitchen and nice work area, is perfectly sized for one person on a business trip.  It's small and compact but tastefully furnished and well insulated.  I haven't once heard any of my neighbors!  The TV has a VCR and there's a great selection of videos for free at the front desk. I'm not sure of the listed price of this hotel, as I booked it off of HotWire and got it at a great price of $35 a night.  Of course on HotWire you can't tell what hotel you are booking, but Candlewood Suites uses them alot, so chances are good if you are booking a hotel with a kitchen icon in the Clear lake area you will end up at the CandleWood.  Good Luck!MoreShow less</t>
+  </si>
+  <si>
+    <t>I am currently staying at the Candlewood Suites in the Clear Lake area and it has been an entirely pleasing experience.  The room, which has a full kitchen and nice work area, is perfectly sized for one person on a business trip.  It's small and compact but tastefully furnished and well insulated.  I haven't once heard any of my neighbors!  The TV has a VCR and there's a great selection of videos for free at the front desk. I'm not sure of the listed price of this hotel, as I booked it off of HotWire and got it at a great price of $35 a night.  Of course on HotWire you can't tell what hotel you are booking, but Candlewood Suites uses them alot, so chances are good if you are booking a hotel with a kitchen icon in the Clear lake area you will end up at the CandleWood.  Good Luck!More</t>
   </si>
 </sst>
 </file>
@@ -1406,8 +1893,12 @@
       <c r="M2" t="n">
         <v>4</v>
       </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -1420,7 +1911,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1436,7 +1927,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1445,36 +1936,32 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -1497,7 +1984,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1506,26 +1993,22 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
-      <c r="N4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" t="s">
-        <v>58</v>
-      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
@@ -1538,7 +2021,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -1554,7 +2037,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1563,39 +2046,43 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1632,35 +2119,27 @@
         <v>77</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
         <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>80</v>
-      </c>
-      <c r="X6" t="s">
-        <v>81</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1676,39 +2155,41 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
         <v>83</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>84</v>
       </c>
-      <c r="J7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>78</v>
-      </c>
       <c r="O7" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
       <c r="R7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
@@ -1718,14 +2199,10 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>88</v>
-      </c>
-      <c r="X7" t="s">
-        <v>89</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -1741,34 +2218,34 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
         <v>91</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>92</v>
-      </c>
-      <c r="J8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>96</v>
-      </c>
-      <c r="O8" t="s">
-        <v>79</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1779,14 +2256,10 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>97</v>
-      </c>
-      <c r="X8" t="s">
-        <v>98</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -1802,7 +2275,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1811,25 +2284,25 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1840,14 +2313,10 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>106</v>
-      </c>
-      <c r="X9" t="s">
-        <v>107</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -1863,7 +2332,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1872,30 +2341,30 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
@@ -1906,13 +2375,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="X10" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
@@ -1928,7 +2397,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1937,49 +2406,47 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="O11" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q11" t="s"/>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="X11" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
@@ -1995,7 +2462,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2004,39 +2471,49 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="O12" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>121</v>
+      </c>
+      <c r="X12" t="s">
+        <v>122</v>
+      </c>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
@@ -2052,7 +2529,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2061,29 +2538,29 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="O13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R13" t="n">
         <v>5</v>
@@ -2096,10 +2573,14 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>130</v>
+      </c>
+      <c r="X13" t="s">
+        <v>131</v>
+      </c>
       <c r="Y13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
@@ -2115,62 +2596,52 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>138</v>
+      </c>
+      <c r="X14" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y14" t="s">
         <v>140</v>
-      </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
-        <v>141</v>
-      </c>
-      <c r="J14" t="s">
-        <v>142</v>
-      </c>
-      <c r="K14" t="s">
-        <v>143</v>
-      </c>
-      <c r="L14" t="s">
-        <v>144</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="s">
-        <v>145</v>
-      </c>
-      <c r="O14" t="s">
-        <v>79</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
-      <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>2</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="s">
-        <v>146</v>
-      </c>
-      <c r="X14" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="15">
@@ -2186,58 +2657,52 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>147</v>
+      </c>
+      <c r="X15" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y15" t="s">
         <v>149</v>
-      </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
-        <v>150</v>
-      </c>
-      <c r="J15" t="s">
-        <v>151</v>
-      </c>
-      <c r="K15" t="s">
-        <v>152</v>
-      </c>
-      <c r="L15" t="s">
-        <v>153</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="s">
-        <v>154</v>
-      </c>
-      <c r="O15" t="s">
-        <v>79</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
-      <c r="R15" t="n">
-        <v>3</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
-      <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>3</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
-      <c r="Y15" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="16">
@@ -2253,58 +2718,56 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" t="s">
+        <v>153</v>
+      </c>
+      <c r="L16" t="s">
+        <v>154</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>155</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
-        <v>156</v>
-      </c>
-      <c r="J16" t="s">
-        <v>157</v>
-      </c>
-      <c r="K16" t="s">
-        <v>158</v>
-      </c>
-      <c r="L16" t="s">
-        <v>159</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>160</v>
-      </c>
       <c r="O16" t="s">
-        <v>79</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
       <c r="R16" t="n">
         <v>5</v>
       </c>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>156</v>
+      </c>
+      <c r="X16" t="s">
+        <v>157</v>
+      </c>
       <c r="Y16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
@@ -2320,44 +2783,40 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>160</v>
+      </c>
+      <c r="J17" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" t="s">
         <v>162</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="L17" t="s">
         <v>163</v>
       </c>
-      <c r="J17" t="s">
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>164</v>
       </c>
-      <c r="K17" t="s">
-        <v>165</v>
-      </c>
-      <c r="L17" t="s">
-        <v>166</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>167</v>
-      </c>
       <c r="O17" t="s">
-        <v>168</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="n">
         <v>5</v>
       </c>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="n">
         <v>5</v>
       </c>
@@ -2368,10 +2827,14 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>165</v>
+      </c>
+      <c r="X17" t="s">
+        <v>166</v>
+      </c>
       <c r="Y17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
@@ -2387,54 +2850,52 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
         <v>169</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>170</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>171</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>172</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
         <v>173</v>
       </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="O18" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>174</v>
+      </c>
+      <c r="X18" t="s">
+        <v>175</v>
+      </c>
       <c r="Y18" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
@@ -2450,7 +2911,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2459,49 +2920,49 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O19" t="s">
-        <v>58</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
         <v>3</v>
       </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>183</v>
+      </c>
+      <c r="X19" t="s">
+        <v>184</v>
+      </c>
       <c r="Y19" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20">
@@ -2517,7 +2978,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2526,45 +2987,39 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J20" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K20" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="L20" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+      <c r="N20" t="s">
+        <v>191</v>
+      </c>
+      <c r="O20" t="s">
+        <v>91</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
@@ -2580,7 +3035,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2589,51 +3044,45 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="J21" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="K21" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="O21" t="s">
-        <v>192</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>193</v>
-      </c>
-      <c r="X21" t="s">
-        <v>194</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22">
@@ -2649,7 +3098,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2658,37 +3107,37 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J22" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K22" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O22" t="s">
-        <v>192</v>
+        <v>91</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
@@ -2697,10 +3146,14 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>205</v>
+      </c>
+      <c r="X22" t="s">
+        <v>206</v>
+      </c>
       <c r="Y22" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
@@ -2716,7 +3169,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2725,41 +3178,41 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="J23" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K23" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L23" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>213</v>
+      </c>
+      <c r="O23" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
         <v>3</v>
-      </c>
-      <c r="N23" t="s">
-        <v>207</v>
-      </c>
-      <c r="O23" t="s">
-        <v>79</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2767,7 +3220,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24">
@@ -2783,7 +3236,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2792,49 +3245,53 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="J24" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="K24" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s">
+        <v>219</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
         <v>213</v>
       </c>
-      <c r="M24" t="n">
-        <v>4</v>
-      </c>
-      <c r="N24" t="s">
-        <v>214</v>
-      </c>
       <c r="O24" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="P24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>220</v>
+      </c>
+      <c r="X24" t="s">
+        <v>221</v>
+      </c>
       <c r="Y24" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25">
@@ -2850,7 +3307,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2859,53 +3316,49 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="J25" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="K25" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="L25" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="O25" t="s">
-        <v>192</v>
+        <v>91</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>222</v>
-      </c>
-      <c r="X25" t="s">
-        <v>223</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26">
@@ -2921,7 +3374,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2930,25 +3383,25 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="J26" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="O26" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -2960,7 +3413,7 @@
         <v>5</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
@@ -2972,7 +3425,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27">
@@ -2988,7 +3441,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -2997,41 +3450,41 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="J27" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="K27" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s">
+        <v>240</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
         <v>234</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
         <v>3</v>
       </c>
-      <c r="N27" t="s">
-        <v>230</v>
-      </c>
-      <c r="O27" t="s">
-        <v>79</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>3</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3039,7 +3492,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28">
@@ -3055,7 +3508,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3064,41 +3517,41 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="J28" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K28" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="O28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
       </c>
       <c r="Q28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3106,7 +3559,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29">
@@ -3122,7 +3575,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3131,37 +3584,41 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="J29" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="K29" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="L29" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="O29" t="s">
-        <v>58</v>
+        <v>254</v>
       </c>
       <c r="P29" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3169,7 +3626,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30">
@@ -3185,7 +3642,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3194,37 +3651,37 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="J30" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="K30" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
-      </c>
-      <c r="N30" t="s">
-        <v>247</v>
-      </c>
-      <c r="O30" t="s">
-        <v>192</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
       <c r="P30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
       <c r="S30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3232,7 +3689,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31">
@@ -3248,7 +3705,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3257,37 +3714,41 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="J31" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="K31" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L31" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>265</v>
+      </c>
+      <c r="O31" t="s">
+        <v>61</v>
+      </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3295,7 +3756,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32">
@@ -3311,7 +3772,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3320,41 +3781,37 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="J32" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="K32" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="L32" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
-      </c>
-      <c r="N32" t="s">
-        <v>265</v>
-      </c>
-      <c r="O32" t="s">
-        <v>58</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R32" t="n">
         <v>4</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3362,7 +3819,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33">
@@ -3378,7 +3835,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3387,34 +3844,34 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="J33" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="K33" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="L33" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="O33" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="P33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q33" t="n">
         <v>5</v>
       </c>
       <c r="R33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -3429,7 +3886,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34">
@@ -3445,7 +3902,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3454,16 +3911,16 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="J34" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K34" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L34" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
@@ -3474,11 +3931,13 @@
         <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
@@ -3490,7 +3949,1520 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>277</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>285</v>
+      </c>
+      <c r="J35" t="s">
+        <v>286</v>
+      </c>
+      <c r="K35" t="s">
+        <v>287</v>
+      </c>
+      <c r="L35" t="s">
+        <v>288</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>289</v>
+      </c>
+      <c r="O35" t="s">
+        <v>290</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>291</v>
+      </c>
+      <c r="X35" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>294</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>295</v>
+      </c>
+      <c r="J36" t="s">
+        <v>296</v>
+      </c>
+      <c r="K36" t="s">
+        <v>297</v>
+      </c>
+      <c r="L36" t="s">
+        <v>298</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>299</v>
+      </c>
+      <c r="O36" t="s">
+        <v>290</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>300</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>301</v>
+      </c>
+      <c r="J37" t="s">
+        <v>302</v>
+      </c>
+      <c r="K37" t="s">
+        <v>303</v>
+      </c>
+      <c r="L37" t="s">
+        <v>304</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>299</v>
+      </c>
+      <c r="O37" t="s">
+        <v>254</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>305</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>306</v>
+      </c>
+      <c r="J38" t="s">
+        <v>307</v>
+      </c>
+      <c r="K38" t="s">
+        <v>308</v>
+      </c>
+      <c r="L38" t="s">
+        <v>309</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>310</v>
+      </c>
+      <c r="O38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>311</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>312</v>
+      </c>
+      <c r="J39" t="s">
+        <v>313</v>
+      </c>
+      <c r="K39" t="s">
+        <v>314</v>
+      </c>
+      <c r="L39" t="s">
+        <v>315</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>316</v>
+      </c>
+      <c r="O39" t="s">
+        <v>91</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>318</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>319</v>
+      </c>
+      <c r="J40" t="s">
+        <v>320</v>
+      </c>
+      <c r="K40" t="s">
+        <v>321</v>
+      </c>
+      <c r="L40" t="s">
+        <v>322</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>323</v>
+      </c>
+      <c r="O40" t="s">
+        <v>254</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>325</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>326</v>
+      </c>
+      <c r="J41" t="s">
+        <v>327</v>
+      </c>
+      <c r="K41" t="s">
+        <v>328</v>
+      </c>
+      <c r="L41" t="s">
+        <v>329</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>330</v>
+      </c>
+      <c r="O41" t="s">
+        <v>290</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>331</v>
+      </c>
+      <c r="X41" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>334</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>335</v>
+      </c>
+      <c r="J42" t="s">
+        <v>336</v>
+      </c>
+      <c r="K42" t="s">
+        <v>337</v>
+      </c>
+      <c r="L42" t="s">
+        <v>338</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>339</v>
+      </c>
+      <c r="O42" t="s">
+        <v>290</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>340</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>341</v>
+      </c>
+      <c r="J43" t="s">
+        <v>342</v>
+      </c>
+      <c r="K43" t="s">
+        <v>343</v>
+      </c>
+      <c r="L43" t="s">
+        <v>344</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>345</v>
+      </c>
+      <c r="O43" t="s">
+        <v>91</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>346</v>
+      </c>
+      <c r="X43" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>349</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>350</v>
+      </c>
+      <c r="J44" t="s">
+        <v>351</v>
+      </c>
+      <c r="K44" t="s">
+        <v>352</v>
+      </c>
+      <c r="L44" t="s">
+        <v>353</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>354</v>
+      </c>
+      <c r="O44" t="s">
+        <v>91</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>355</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>356</v>
+      </c>
+      <c r="J45" t="s">
+        <v>351</v>
+      </c>
+      <c r="K45" t="s">
+        <v>357</v>
+      </c>
+      <c r="L45" t="s">
+        <v>358</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>354</v>
+      </c>
+      <c r="O45" t="s">
+        <v>91</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>360</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>361</v>
+      </c>
+      <c r="J46" t="s">
+        <v>362</v>
+      </c>
+      <c r="K46" t="s">
+        <v>363</v>
+      </c>
+      <c r="L46" t="s">
+        <v>364</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>365</v>
+      </c>
+      <c r="O46" t="s">
+        <v>61</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>366</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>367</v>
+      </c>
+      <c r="J47" t="s">
+        <v>368</v>
+      </c>
+      <c r="K47" t="s">
+        <v>369</v>
+      </c>
+      <c r="L47" t="s">
+        <v>370</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>371</v>
+      </c>
+      <c r="O47" t="s">
+        <v>61</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>372</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>373</v>
+      </c>
+      <c r="J48" t="s">
+        <v>374</v>
+      </c>
+      <c r="K48" t="s">
+        <v>375</v>
+      </c>
+      <c r="L48" t="s">
+        <v>376</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>377</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>378</v>
+      </c>
+      <c r="J49" t="s">
+        <v>379</v>
+      </c>
+      <c r="K49" t="s">
+        <v>380</v>
+      </c>
+      <c r="L49" t="s">
+        <v>381</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>382</v>
+      </c>
+      <c r="O49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>384</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>385</v>
+      </c>
+      <c r="J50" t="s">
+        <v>386</v>
+      </c>
+      <c r="K50" t="s">
+        <v>387</v>
+      </c>
+      <c r="L50" t="s">
+        <v>388</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>382</v>
+      </c>
+      <c r="O50" t="s">
+        <v>290</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>390</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>391</v>
+      </c>
+      <c r="J51" t="s">
+        <v>392</v>
+      </c>
+      <c r="K51" t="s">
+        <v>393</v>
+      </c>
+      <c r="L51" t="s">
+        <v>394</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>395</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>396</v>
+      </c>
+      <c r="J52" t="s">
+        <v>397</v>
+      </c>
+      <c r="K52" t="s">
+        <v>398</v>
+      </c>
+      <c r="L52" t="s">
+        <v>399</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>400</v>
+      </c>
+      <c r="O52" t="s">
+        <v>61</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>402</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>403</v>
+      </c>
+      <c r="J53" t="s">
+        <v>404</v>
+      </c>
+      <c r="K53" t="s">
+        <v>405</v>
+      </c>
+      <c r="L53" t="s">
+        <v>406</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>407</v>
+      </c>
+      <c r="O53" t="s">
+        <v>61</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>409</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>410</v>
+      </c>
+      <c r="J54" t="s">
+        <v>411</v>
+      </c>
+      <c r="K54" t="s">
+        <v>412</v>
+      </c>
+      <c r="L54" t="s">
+        <v>413</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>414</v>
+      </c>
+      <c r="O54" t="s">
+        <v>61</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>416</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>417</v>
+      </c>
+      <c r="J55" t="s">
+        <v>418</v>
+      </c>
+      <c r="K55" t="s">
+        <v>419</v>
+      </c>
+      <c r="L55" t="s">
+        <v>420</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>421</v>
+      </c>
+      <c r="O55" t="s">
+        <v>91</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>422</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>423</v>
+      </c>
+      <c r="J56" t="s">
+        <v>424</v>
+      </c>
+      <c r="K56" t="s">
+        <v>425</v>
+      </c>
+      <c r="L56" t="s">
+        <v>426</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>35506</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>427</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>428</v>
+      </c>
+      <c r="J57" t="s">
+        <v>429</v>
+      </c>
+      <c r="K57" t="s">
+        <v>430</v>
+      </c>
+      <c r="L57" t="s">
+        <v>431</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
